--- a/export_loan_ledger.xlsx
+++ b/export_loan_ledger.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
-    <t>RIZAL  -  PAYROLL</t>
+    <t xml:space="preserve">  -  PAYROLL</t>
   </si>
   <si>
     <t>Jan 2020</t>
@@ -113,58 +113,46 @@
     <t>NHMFC</t>
   </si>
   <si>
-    <t>AGPAOA-IDLAO , ANGELIQUE MEI AGRA</t>
+    <t>ABEJERO , MARILEN GRACE TAURO</t>
+  </si>
+  <si>
+    <t>LGOO VI</t>
+  </si>
+  <si>
+    <t>ABRIGO , JILL LOVELLA JARDIN</t>
+  </si>
+  <si>
+    <t>LGOO III</t>
+  </si>
+  <si>
+    <t>ABUYAN , MARINEL ALPUERTO</t>
+  </si>
+  <si>
+    <t>AO III</t>
+  </si>
+  <si>
+    <t>BALLON , BRIAN BACALOCOS</t>
   </si>
   <si>
     <t>LGOO V</t>
   </si>
   <si>
-    <t>ALTARES , JOEL CABILTES</t>
-  </si>
-  <si>
-    <t>LGOO VI</t>
-  </si>
-  <si>
-    <t>AMICAN , VIRGINIA DE GUZMAN</t>
-  </si>
-  <si>
-    <t>ANGULO , ANNALYN MARIE MARZAN</t>
-  </si>
-  <si>
-    <t>BANAWA , SALVE GINA PAPA</t>
-  </si>
-  <si>
-    <t>BANDONG , RICHARD STEPHEN SALDEVAR</t>
-  </si>
-  <si>
-    <t>BARRAMEDA , ALYSSA BONAVENTE</t>
-  </si>
-  <si>
-    <t>LGOO III</t>
-  </si>
-  <si>
-    <t>BATAN , BRYAN BANTAY</t>
-  </si>
-  <si>
-    <t>BAUTISTA , JEAN VALERIE MELCHILINA</t>
-  </si>
-  <si>
-    <t>Admin. Asst. II</t>
-  </si>
-  <si>
-    <t>BENITEZ , ALLAN VELAZCO</t>
+    <t>BARTOLABAC , NOEL R</t>
   </si>
   <si>
     <t>LGOO VIII</t>
   </si>
   <si>
-    <t>CAS , ROWENA LAGASCA</t>
+    <t>BELTRAN , JAY-AR T</t>
   </si>
   <si>
-    <t>CASTILLO , BERNARD CRUZ</t>
+    <t>CASTILLO , DENNIS STA. ANA</t>
   </si>
   <si>
-    <t>CASTILLO , ROSANNA MARIA RAMOS</t>
+    <t>Admin. Aide VI</t>
+  </si>
+  <si>
+    <t>CAYA , ROWENA G</t>
   </si>
   <si>
     <t>COSTELO , NENCITA NARIDO</t>
@@ -173,67 +161,175 @@
     <t>LGOO VII</t>
   </si>
   <si>
-    <t>DAMOT , ENRICO ORIAS</t>
+    <t>CRUZ , CARINA SAMIA</t>
   </si>
   <si>
-    <t>GAMBAN , JEFREY ROMERO</t>
+    <t>Chief Administrative Officer</t>
+  </si>
+  <si>
+    <t>CUBIO , JORIELYN S. CUBIO SILVA</t>
+  </si>
+  <si>
+    <t>AO IV</t>
+  </si>
+  <si>
+    <t>DALIDA , ANA SHEILA N</t>
   </si>
   <si>
     <t>LGOO II</t>
   </si>
   <si>
-    <t>GUANZON , EUNICE UNTAL</t>
+    <t>DELGADO , LETICIA PORTE</t>
   </si>
   <si>
-    <t>HERRADURA , LAURICE DALOPE</t>
+    <t>ENOMIS , MELANIE BADO</t>
   </si>
   <si>
-    <t>LACSAMANA , EDNALYN TOLEDO</t>
+    <t>ESCALANTE , MICHIKO RESURRECCION</t>
   </si>
   <si>
-    <t>MIRANDA , REX JR. DE GUZMAN</t>
+    <t>ESCALANTE , JOYCE ARLA PEACH BAUTISTA</t>
   </si>
   <si>
-    <t>MONTEFALCON , OLIVER RAMOS</t>
+    <t>Admin. Asst. III</t>
   </si>
   <si>
-    <t>NERY , GERALDINE CORPUZ</t>
+    <t>GALLAZA , MA CRISTINA VILLA</t>
+  </si>
+  <si>
+    <t>Admin. Asst. II</t>
+  </si>
+  <si>
+    <t>GANTA , JOSE ALLAN T</t>
+  </si>
+  <si>
+    <t>GAONA , JOEL BANTOTO</t>
+  </si>
+  <si>
+    <t>GIMEO , GARY OLIVEROS</t>
+  </si>
+  <si>
+    <t>ADA IV</t>
+  </si>
+  <si>
+    <t>GOGOLIN , KITCH KARIANNE RICERRA</t>
+  </si>
+  <si>
+    <t>GONZALES , MARIA CONCEPCION AGUDONG</t>
+  </si>
+  <si>
+    <t>Supervising Administrative Officer</t>
+  </si>
+  <si>
+    <t>LANDICHO , MONETTE SUBOL</t>
+  </si>
+  <si>
+    <t>MAGCAYANG , JONALYN CATE VILLA</t>
+  </si>
+  <si>
+    <t>LGOO IV</t>
+  </si>
+  <si>
+    <t>MENDOZA , PEDRYAN CRIS MONTALES</t>
+  </si>
+  <si>
+    <t>NADAL , JORDAN VILLANUEVA</t>
+  </si>
+  <si>
+    <t>ATTY IV</t>
+  </si>
+  <si>
+    <t>NANEZ, III , RESTITUTO  BASOY</t>
+  </si>
+  <si>
+    <t>ACCT III</t>
+  </si>
+  <si>
+    <t>NIEVA , JOHN PAUL DE MESA</t>
+  </si>
+  <si>
+    <t>Statistician I</t>
+  </si>
+  <si>
+    <t>PAQUITA , LEIDELYN NARCISO</t>
+  </si>
+  <si>
+    <t>ADAS III</t>
+  </si>
+  <si>
+    <t>PARALE , REYNALDO A</t>
+  </si>
+  <si>
+    <t>ADA III</t>
+  </si>
+  <si>
+    <t>PLASUELO , ADRIANNE O</t>
+  </si>
+  <si>
+    <t>PORNASDORO , MA. JESUSA VERTUDAZO</t>
+  </si>
+  <si>
+    <t>REVADAVIA , JOSE MARIA NINO T</t>
+  </si>
+  <si>
+    <t>RONQUILLO , CAMILLE TOMAS</t>
+  </si>
+  <si>
+    <t>SALES , EUNICE A</t>
+  </si>
+  <si>
+    <t>SALVATUS , ALLAN ABUSTAN</t>
+  </si>
+  <si>
+    <t>SANGEL , AGNES SAN JUAN</t>
+  </si>
+  <si>
+    <t>ACCT II</t>
+  </si>
+  <si>
+    <t>SATURNO , MEDEL A</t>
+  </si>
+  <si>
+    <t>Admin. Aide III</t>
+  </si>
+  <si>
+    <t>SATURNO , RAFAEL MACABEO</t>
   </si>
   <si>
     <t>Admin. Aide IV</t>
   </si>
   <si>
-    <t>ONATE , SHERLYN ATIENZA</t>
+    <t>SOLIS , HANNAH GRACE PERNIA</t>
   </si>
   <si>
-    <t>PANGANIBAN , CHERRIBIN CASTILLO</t>
+    <t>SOLTURA , BEZALEEL ONG</t>
   </si>
   <si>
-    <t>PORNASDORO , MA JESUSA VERTUDAZO</t>
+    <t>Admin. Officer V</t>
   </si>
   <si>
-    <t>RESURRECCION , ABIGAIL LOUIZE MAGPANTAY</t>
+    <t>TOMACLAS , DANILO TIGLE</t>
   </si>
   <si>
-    <t>Admin. Aide VI</t>
+    <t>Security Guard I</t>
   </si>
   <si>
-    <t>REYES , CAMELA ROSE SARMIENTO</t>
+    <t>TORIO , CHARISSE CELAN CAMBA</t>
   </si>
   <si>
-    <t>SANDIEGO , JAYEN DUCUT</t>
+    <t>TORRES , JUDITH FAYE DIMALIBOT</t>
   </si>
   <si>
-    <t>SICAT-ALVAREZ , JENNYLYNE TAMONDONG</t>
+    <t>TUMAMAC , GILBERTO LACUENTA</t>
   </si>
   <si>
-    <t>TEODORO , PHOENIX GRANT MACALALAD</t>
+    <t>VELEZ , CHRISTINE T.</t>
   </si>
   <si>
-    <t>TOLEDO , RENZ HARRY MARANAN</t>
+    <t>Statistician II</t>
   </si>
   <si>
-    <t>TOMACLAS , ELLAINE LACSAMANA</t>
+    <t>VERIDIANO , RESCHIEL BALDEMECA</t>
   </si>
   <si>
     <t>GRAND TOTAL:</t>
@@ -928,7 +1024,7 @@
   <dimension ref="A1:AI509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,22 +1390,22 @@
         <v>33</v>
       </c>
       <c r="C8" s="39">
-        <v>51155</v>
+        <v>65319</v>
       </c>
       <c r="D8" s="39">
-        <v>51155</v>
+        <v>65319</v>
       </c>
       <c r="E8" s="39">
-        <v>6002.55</v>
+        <v>9815.03</v>
       </c>
       <c r="F8" s="39">
-        <v>4603.95</v>
+        <v>5878.71</v>
       </c>
       <c r="G8" s="39">
         <v>0</v>
       </c>
       <c r="H8" s="39">
-        <v>1470.95</v>
+        <v>1176.76</v>
       </c>
       <c r="I8" s="40">
         <v>0</v>
@@ -1327,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O8" s="39">
         <v>0</v>
       </c>
       <c r="P8" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="39">
         <v>0</v>
@@ -1342,28 +1438,28 @@
         <v>0</v>
       </c>
       <c r="S8" s="39">
-        <v>767.325</v>
+        <v>900</v>
       </c>
       <c r="T8" s="39">
         <v>0</v>
       </c>
       <c r="U8" s="39">
-        <v>6284</v>
+        <v>4934</v>
       </c>
       <c r="V8" s="39">
         <v>0</v>
       </c>
       <c r="W8" s="39">
-        <v>20328.775</v>
+        <v>23204.5</v>
       </c>
       <c r="X8" s="39">
-        <v>30826.225</v>
+        <v>42114.5</v>
       </c>
       <c r="Y8" s="42">
-        <v>15413.1125</v>
+        <v>21057.25</v>
       </c>
       <c r="Z8" s="40">
-        <v>15413.1125</v>
+        <v>21057.25</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1374,25 +1470,25 @@
         <v>35</v>
       </c>
       <c r="C9" s="39">
-        <v>65319</v>
+        <v>30531</v>
       </c>
       <c r="D9" s="39">
-        <v>65319</v>
+        <v>30531</v>
       </c>
       <c r="E9" s="39">
-        <v>9815.03</v>
+        <v>1286.02</v>
       </c>
       <c r="F9" s="39">
-        <v>5878.71</v>
+        <v>2747.79</v>
       </c>
       <c r="G9" s="39">
         <v>0</v>
       </c>
       <c r="H9" s="39">
-        <v>7708.41</v>
+        <v>4191.55</v>
       </c>
       <c r="I9" s="40">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="40">
         <v>0</v>
@@ -1404,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="39">
-        <v>0</v>
+        <v>1311.12</v>
       </c>
       <c r="N9" s="39">
         <v>200</v>
@@ -1422,28 +1518,28 @@
         <v>0</v>
       </c>
       <c r="S9" s="39">
-        <v>900</v>
+        <v>457.96</v>
       </c>
       <c r="T9" s="39">
         <v>0</v>
       </c>
       <c r="U9" s="39">
-        <v>100</v>
+        <v>2584</v>
       </c>
       <c r="V9" s="39">
         <v>0</v>
       </c>
       <c r="W9" s="39">
-        <v>25602.15</v>
+        <v>12778.44</v>
       </c>
       <c r="X9" s="39">
-        <v>39716.85</v>
+        <v>17752.56</v>
       </c>
       <c r="Y9" s="40">
-        <v>19858.425</v>
+        <v>8876.28</v>
       </c>
       <c r="Z9" s="40">
-        <v>19858.425</v>
+        <v>8876.28</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1451,19 +1547,19 @@
         <v>36</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="39">
-        <v>65319</v>
+        <v>27755</v>
       </c>
       <c r="D10" s="39">
-        <v>65319</v>
+        <v>27755</v>
       </c>
       <c r="E10" s="39">
-        <v>9815.03</v>
+        <v>788.42</v>
       </c>
       <c r="F10" s="39">
-        <v>5878.71</v>
+        <v>2497.95</v>
       </c>
       <c r="G10" s="39">
         <v>0</v>
@@ -1472,84 +1568,84 @@
         <v>0</v>
       </c>
       <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39">
+        <v>0</v>
+      </c>
+      <c r="N10" s="39">
+        <v>200</v>
+      </c>
+      <c r="O10" s="39">
+        <v>0</v>
+      </c>
+      <c r="P10" s="39">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>0</v>
+      </c>
+      <c r="R10" s="39">
+        <v>0</v>
+      </c>
+      <c r="S10" s="39">
+        <v>416.32</v>
+      </c>
+      <c r="T10" s="39">
+        <v>0</v>
+      </c>
+      <c r="U10" s="39">
         <v>500</v>
       </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="40">
-        <v>0</v>
-      </c>
-      <c r="M10" s="39">
-        <v>0</v>
-      </c>
-      <c r="N10" s="39">
-        <v>1200</v>
-      </c>
-      <c r="O10" s="39">
-        <v>0</v>
-      </c>
-      <c r="P10" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>0</v>
-      </c>
-      <c r="R10" s="39">
-        <v>0</v>
-      </c>
-      <c r="S10" s="39">
-        <v>900</v>
-      </c>
-      <c r="T10" s="39">
-        <v>0</v>
-      </c>
-      <c r="U10" s="39">
-        <v>1444</v>
-      </c>
       <c r="V10" s="39">
         <v>0</v>
       </c>
       <c r="W10" s="39">
-        <v>19737.74</v>
+        <v>5402.69</v>
       </c>
       <c r="X10" s="39">
-        <v>45581.26</v>
+        <v>22352.31</v>
       </c>
       <c r="Y10" s="40">
-        <v>22790.63</v>
+        <v>11176.155</v>
       </c>
       <c r="Z10" s="40">
-        <v>22790.63</v>
+        <v>11176.155</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="39">
-        <v>65319</v>
+        <v>51155</v>
       </c>
       <c r="D11" s="39">
-        <v>65319</v>
+        <v>51155</v>
       </c>
       <c r="E11" s="39">
-        <v>9815.03</v>
+        <v>6002.55</v>
       </c>
       <c r="F11" s="39">
-        <v>5878.71</v>
+        <v>4603.95</v>
       </c>
       <c r="G11" s="39">
         <v>0</v>
       </c>
       <c r="H11" s="39">
-        <v>8061.1</v>
+        <v>3690.08</v>
       </c>
       <c r="I11" s="40">
         <v>0</v>
@@ -1564,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N11" s="39">
         <v>200</v>
@@ -1582,54 +1678,54 @@
         <v>0</v>
       </c>
       <c r="S11" s="39">
-        <v>900</v>
+        <v>767.32</v>
       </c>
       <c r="T11" s="39">
         <v>0</v>
       </c>
       <c r="U11" s="39">
-        <v>8111</v>
+        <v>4400</v>
       </c>
       <c r="V11" s="39">
         <v>0</v>
       </c>
       <c r="W11" s="39">
-        <v>33621.4</v>
+        <v>19663.9</v>
       </c>
       <c r="X11" s="39">
-        <v>31697.6</v>
+        <v>31491.1</v>
       </c>
       <c r="Y11" s="40">
-        <v>15848.8</v>
+        <v>15745.55</v>
       </c>
       <c r="Z11" s="40">
-        <v>15848.8</v>
+        <v>15745.55</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="39">
-        <v>65319</v>
+        <v>110980</v>
       </c>
       <c r="D12" s="39">
-        <v>65319</v>
+        <v>110980</v>
       </c>
       <c r="E12" s="39">
-        <v>9815.03</v>
+        <v>24359.87</v>
       </c>
       <c r="F12" s="39">
-        <v>5878.71</v>
+        <v>9988.2</v>
       </c>
       <c r="G12" s="39">
-        <v>0</v>
+        <v>74.4</v>
       </c>
       <c r="H12" s="39">
-        <v>0</v>
+        <v>5796.88</v>
       </c>
       <c r="I12" s="40">
         <v>0</v>
@@ -1647,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O12" s="39">
         <v>0</v>
@@ -1668,30 +1764,30 @@
         <v>0</v>
       </c>
       <c r="U12" s="39">
-        <v>1344</v>
+        <v>100</v>
       </c>
       <c r="V12" s="39">
         <v>0</v>
       </c>
       <c r="W12" s="39">
-        <v>18437.74</v>
+        <v>41419.35</v>
       </c>
       <c r="X12" s="39">
-        <v>46881.26</v>
+        <v>69560.65</v>
       </c>
       <c r="Y12" s="40">
-        <v>23440.63</v>
+        <v>34780.325</v>
       </c>
       <c r="Z12" s="40">
-        <v>23440.63</v>
+        <v>34780.325</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="39">
         <v>65319</v>
@@ -1709,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="39">
-        <v>8061.17</v>
+        <v>2059.33</v>
       </c>
       <c r="I13" s="40">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J13" s="40">
         <v>0</v>
@@ -1727,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="39">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O13" s="39">
         <v>0</v>
@@ -1745,54 +1841,54 @@
         <v>900</v>
       </c>
       <c r="T13" s="39">
-        <v>1957.81</v>
+        <v>0</v>
       </c>
       <c r="U13" s="39">
-        <v>0</v>
+        <v>8267</v>
       </c>
       <c r="V13" s="39">
         <v>0</v>
       </c>
       <c r="W13" s="39">
-        <v>27912.72</v>
+        <v>27120.07</v>
       </c>
       <c r="X13" s="39">
-        <v>37406.28</v>
+        <v>38198.93</v>
       </c>
       <c r="Y13" s="40">
-        <v>18703.14</v>
+        <v>19099.465</v>
       </c>
       <c r="Z13" s="40">
-        <v>18703.14</v>
+        <v>19099.465</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="39">
-        <v>30531</v>
+        <v>15664</v>
       </c>
       <c r="D14" s="39">
-        <v>30531</v>
+        <v>15664</v>
       </c>
       <c r="E14" s="39">
-        <v>1286.02</v>
+        <v>0</v>
       </c>
       <c r="F14" s="39">
-        <v>2747.79</v>
+        <v>1409.76</v>
       </c>
       <c r="G14" s="39">
-        <v>0</v>
+        <v>192.72</v>
       </c>
       <c r="H14" s="39">
-        <v>0</v>
+        <v>1470.95</v>
       </c>
       <c r="I14" s="40">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="40">
         <v>0</v>
@@ -1822,57 +1918,57 @@
         <v>0</v>
       </c>
       <c r="S14" s="39">
-        <v>457.965</v>
+        <v>234.96</v>
       </c>
       <c r="T14" s="39">
         <v>0</v>
       </c>
       <c r="U14" s="39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V14" s="39">
         <v>0</v>
       </c>
       <c r="W14" s="39">
-        <v>4891.775</v>
+        <v>4508.39</v>
       </c>
       <c r="X14" s="39">
-        <v>25639.225</v>
+        <v>11155.61</v>
       </c>
       <c r="Y14" s="40">
-        <v>12819.6125</v>
+        <v>5577.805</v>
       </c>
       <c r="Z14" s="40">
-        <v>12819.6125</v>
+        <v>5577.805</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="39">
-        <v>51155</v>
+        <v>67469</v>
       </c>
       <c r="D15" s="39">
-        <v>51155</v>
+        <v>67469</v>
       </c>
       <c r="E15" s="39">
-        <v>6002.55</v>
+        <v>10393.74</v>
       </c>
       <c r="F15" s="39">
-        <v>4603.95</v>
+        <v>6072.21</v>
       </c>
       <c r="G15" s="39">
         <v>0</v>
       </c>
       <c r="H15" s="39">
-        <v>1176.76</v>
+        <v>13434.07</v>
       </c>
       <c r="I15" s="40">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J15" s="40">
         <v>0</v>
@@ -1884,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N15" s="39">
         <v>200</v>
@@ -1896,60 +1992,60 @@
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <v>0</v>
+        <v>1494.1</v>
       </c>
       <c r="R15" s="39">
         <v>0</v>
       </c>
       <c r="S15" s="39">
-        <v>767.325</v>
+        <v>900</v>
       </c>
       <c r="T15" s="39">
-        <v>0</v>
+        <v>2557.49</v>
       </c>
       <c r="U15" s="39">
-        <v>500</v>
+        <v>14744</v>
       </c>
       <c r="V15" s="39">
         <v>0</v>
       </c>
       <c r="W15" s="39">
-        <v>13750.585</v>
+        <v>50451.17</v>
       </c>
       <c r="X15" s="39">
-        <v>37404.415</v>
+        <v>17017.83</v>
       </c>
       <c r="Y15" s="40">
-        <v>18702.2075</v>
+        <v>8508.915</v>
       </c>
       <c r="Z15" s="40">
-        <v>18702.2075</v>
+        <v>8508.915</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" s="39">
-        <v>16758</v>
+        <v>83406</v>
       </c>
       <c r="D16" s="39">
-        <v>16758</v>
+        <v>83406</v>
       </c>
       <c r="E16" s="39">
-        <v>0</v>
+        <v>15453.47</v>
       </c>
       <c r="F16" s="39">
-        <v>1508.22</v>
+        <v>7506.54</v>
       </c>
       <c r="G16" s="39">
-        <v>0</v>
+        <v>163.76</v>
       </c>
       <c r="H16" s="39">
-        <v>715.18</v>
+        <v>0</v>
       </c>
       <c r="I16" s="40">
         <v>0</v>
@@ -1967,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="39">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O16" s="39">
         <v>0</v>
@@ -1982,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="39">
-        <v>251.37</v>
+        <v>900</v>
       </c>
       <c r="T16" s="39">
         <v>0</v>
@@ -1994,48 +2090,48 @@
         <v>0</v>
       </c>
       <c r="W16" s="39">
-        <v>2674.77</v>
+        <v>24623.77</v>
       </c>
       <c r="X16" s="39">
-        <v>14083.23</v>
+        <v>58782.23</v>
       </c>
       <c r="Y16" s="40">
-        <v>7041.615</v>
+        <v>29391.115</v>
       </c>
       <c r="Z16" s="40">
-        <v>7041.615</v>
+        <v>29391.115</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" s="39">
-        <v>114632</v>
+        <v>17063</v>
       </c>
       <c r="D17" s="39">
-        <v>114632</v>
+        <v>17063</v>
       </c>
       <c r="E17" s="39">
-        <v>25539.47</v>
+        <v>0</v>
       </c>
       <c r="F17" s="39">
-        <v>10316.88</v>
+        <v>1535.67</v>
       </c>
       <c r="G17" s="39">
-        <v>115.82</v>
+        <v>0</v>
       </c>
       <c r="H17" s="39">
-        <v>23197.62</v>
+        <v>0</v>
       </c>
       <c r="I17" s="40">
         <v>0</v>
       </c>
       <c r="J17" s="40">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K17" s="40">
         <v>0</v>
@@ -2053,66 +2149,66 @@
         <v>0</v>
       </c>
       <c r="P17" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="39">
-        <v>784.74</v>
+        <v>1146.56</v>
       </c>
       <c r="R17" s="39">
         <v>0</v>
       </c>
       <c r="S17" s="39">
-        <v>900</v>
+        <v>255.94</v>
       </c>
       <c r="T17" s="39">
         <v>0</v>
       </c>
       <c r="U17" s="39">
-        <v>20631</v>
+        <v>0</v>
       </c>
       <c r="V17" s="39">
         <v>0</v>
       </c>
       <c r="W17" s="39">
-        <v>84596.65</v>
+        <v>4449.29</v>
       </c>
       <c r="X17" s="39">
-        <v>30035.35</v>
+        <v>12613.71</v>
       </c>
       <c r="Y17" s="40">
-        <v>15017.675</v>
+        <v>6306.855</v>
       </c>
       <c r="Z17" s="40">
-        <v>15017.675</v>
+        <v>6306.855</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C18" s="39">
-        <v>65319</v>
+        <v>17063</v>
       </c>
       <c r="D18" s="39">
-        <v>65319</v>
+        <v>17063</v>
       </c>
       <c r="E18" s="39">
-        <v>9815.03</v>
+        <v>0</v>
       </c>
       <c r="F18" s="39">
-        <v>5878.71</v>
+        <v>1535.67</v>
       </c>
       <c r="G18" s="39">
         <v>0</v>
       </c>
       <c r="H18" s="39">
-        <v>7708.41</v>
+        <v>10827.19</v>
       </c>
       <c r="I18" s="40">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="40">
         <v>0</v>
@@ -2124,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N18" s="39">
         <v>200</v>
@@ -2136,34 +2232,34 @@
         <v>0</v>
       </c>
       <c r="Q18" s="39">
-        <v>0</v>
+        <v>5489.64</v>
       </c>
       <c r="R18" s="39">
         <v>0</v>
       </c>
       <c r="S18" s="39">
-        <v>900</v>
+        <v>255.94</v>
       </c>
       <c r="T18" s="39">
         <v>0</v>
       </c>
       <c r="U18" s="39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V18" s="39">
         <v>0</v>
       </c>
       <c r="W18" s="39">
-        <v>25557.71</v>
+        <v>18308.44</v>
       </c>
       <c r="X18" s="39">
-        <v>39761.29</v>
+        <v>-1245.44</v>
       </c>
       <c r="Y18" s="40">
-        <v>19880.645</v>
+        <v>-622.72</v>
       </c>
       <c r="Z18" s="40">
-        <v>19880.645</v>
+        <v>-622.72</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2171,28 +2267,28 @@
         <v>48</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C19" s="39">
-        <v>65319</v>
+        <v>83406</v>
       </c>
       <c r="D19" s="39">
-        <v>65319</v>
+        <v>83406</v>
       </c>
       <c r="E19" s="39">
-        <v>9815.03</v>
+        <v>15453.47</v>
       </c>
       <c r="F19" s="39">
-        <v>5878.71</v>
+        <v>7506.54</v>
       </c>
       <c r="G19" s="39">
         <v>0</v>
       </c>
       <c r="H19" s="39">
-        <v>11330.01</v>
+        <v>0</v>
       </c>
       <c r="I19" s="40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J19" s="40">
         <v>0</v>
@@ -2207,7 +2303,7 @@
         <v>1311.12</v>
       </c>
       <c r="N19" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O19" s="39">
         <v>0</v>
@@ -2216,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="39">
-        <v>0</v>
+        <v>1146.56</v>
       </c>
       <c r="R19" s="39">
         <v>0</v>
@@ -2228,48 +2324,48 @@
         <v>0</v>
       </c>
       <c r="U19" s="39">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="V19" s="39">
         <v>0</v>
       </c>
       <c r="W19" s="39">
-        <v>32134.87</v>
+        <v>26817.69</v>
       </c>
       <c r="X19" s="39">
-        <v>33184.13</v>
+        <v>56588.31</v>
       </c>
       <c r="Y19" s="40">
-        <v>16592.065</v>
+        <v>28294.155</v>
       </c>
       <c r="Z19" s="40">
-        <v>16592.065</v>
+        <v>28294.155</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>35</v>
-      </c>
       <c r="C20" s="39">
-        <v>65319</v>
+        <v>83406</v>
       </c>
       <c r="D20" s="39">
-        <v>65319</v>
+        <v>83406</v>
       </c>
       <c r="E20" s="39">
-        <v>9815.03</v>
+        <v>15453.47</v>
       </c>
       <c r="F20" s="39">
-        <v>5878.71</v>
+        <v>7506.54</v>
       </c>
       <c r="G20" s="39">
         <v>0</v>
       </c>
       <c r="H20" s="39">
-        <v>10184.85</v>
+        <v>10827.19</v>
       </c>
       <c r="I20" s="40">
         <v>0</v>
@@ -2284,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N20" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O20" s="39">
         <v>0</v>
@@ -2296,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="39">
-        <v>0</v>
+        <v>5489.64</v>
       </c>
       <c r="R20" s="39">
         <v>0</v>
@@ -2308,22 +2404,22 @@
         <v>0</v>
       </c>
       <c r="U20" s="39">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="V20" s="39">
         <v>0</v>
       </c>
       <c r="W20" s="39">
-        <v>28644.15</v>
+        <v>40676.84</v>
       </c>
       <c r="X20" s="39">
-        <v>36674.85</v>
+        <v>42729.16</v>
       </c>
       <c r="Y20" s="40">
-        <v>18337.425</v>
+        <v>21364.58</v>
       </c>
       <c r="Z20" s="40">
-        <v>18337.425</v>
+        <v>21364.58</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2334,19 +2430,19 @@
         <v>51</v>
       </c>
       <c r="C21" s="39">
-        <v>83406</v>
+        <v>30531</v>
       </c>
       <c r="D21" s="39">
-        <v>83406</v>
+        <v>30531</v>
       </c>
       <c r="E21" s="39">
-        <v>15453.47</v>
+        <v>1286.02</v>
       </c>
       <c r="F21" s="39">
-        <v>7506.54</v>
+        <v>2747.79</v>
       </c>
       <c r="G21" s="39">
-        <v>163.76</v>
+        <v>0</v>
       </c>
       <c r="H21" s="39">
         <v>0</v>
@@ -2367,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="39">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O21" s="39">
         <v>0</v>
       </c>
       <c r="P21" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q21" s="39">
         <v>0</v>
@@ -2382,28 +2478,28 @@
         <v>0</v>
       </c>
       <c r="S21" s="39">
-        <v>900</v>
+        <v>457.96</v>
       </c>
       <c r="T21" s="39">
         <v>0</v>
       </c>
       <c r="U21" s="39">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="V21" s="39">
         <v>0</v>
       </c>
       <c r="W21" s="39">
-        <v>24623.77</v>
+        <v>6891.77</v>
       </c>
       <c r="X21" s="39">
-        <v>58782.23</v>
+        <v>23639.23</v>
       </c>
       <c r="Y21" s="40">
-        <v>29391.115</v>
+        <v>11819.615</v>
       </c>
       <c r="Z21" s="40">
-        <v>29391.115</v>
+        <v>11819.615</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2411,28 +2507,28 @@
         <v>52</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="39">
-        <v>83406</v>
+        <v>25232</v>
       </c>
       <c r="D22" s="39">
-        <v>83406</v>
+        <v>25232</v>
       </c>
       <c r="E22" s="39">
-        <v>15453.47</v>
+        <v>336.17</v>
       </c>
       <c r="F22" s="39">
-        <v>7506.54</v>
+        <v>2270.88</v>
       </c>
       <c r="G22" s="39">
         <v>0</v>
       </c>
       <c r="H22" s="39">
-        <v>10624.22</v>
+        <v>0</v>
       </c>
       <c r="I22" s="40">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J22" s="40">
         <v>0</v>
@@ -2444,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N22" s="39">
         <v>200</v>
@@ -2462,48 +2558,48 @@
         <v>0</v>
       </c>
       <c r="S22" s="39">
-        <v>900</v>
+        <v>378.48</v>
       </c>
       <c r="T22" s="39">
         <v>0</v>
       </c>
       <c r="U22" s="39">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="V22" s="39">
         <v>0</v>
       </c>
       <c r="W22" s="39">
-        <v>40339.79</v>
+        <v>3185.53</v>
       </c>
       <c r="X22" s="39">
-        <v>43066.21</v>
+        <v>22046.47</v>
       </c>
       <c r="Y22" s="40">
-        <v>21533.105</v>
+        <v>11023.235</v>
       </c>
       <c r="Z22" s="40">
-        <v>21533.105</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C23" s="39">
-        <v>25232</v>
+        <v>29883</v>
       </c>
       <c r="D23" s="39">
-        <v>25232</v>
+        <v>29883</v>
       </c>
       <c r="E23" s="39">
-        <v>336.17</v>
+        <v>1169.86</v>
       </c>
       <c r="F23" s="39">
-        <v>2270.88</v>
+        <v>2689.47</v>
       </c>
       <c r="G23" s="39">
         <v>0</v>
@@ -2527,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="39">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="O23" s="39">
         <v>0</v>
       </c>
       <c r="P23" s="39">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="Q23" s="39">
         <v>0</v>
@@ -2542,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="S23" s="39">
-        <v>378.48</v>
+        <v>448.24</v>
       </c>
       <c r="T23" s="39">
         <v>0</v>
       </c>
       <c r="U23" s="39">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="V23" s="39">
         <v>0</v>
       </c>
       <c r="W23" s="39">
-        <v>3185.53</v>
+        <v>19307.57</v>
       </c>
       <c r="X23" s="39">
-        <v>22046.47</v>
+        <v>10575.43</v>
       </c>
       <c r="Y23" s="40">
-        <v>11023.235</v>
+        <v>5287.715</v>
       </c>
       <c r="Z23" s="40">
-        <v>11023.235</v>
+        <v>5287.715</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2571,19 +2667,19 @@
         <v>55</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C24" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="D24" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="E24" s="39">
-        <v>9815.03</v>
+        <v>336.17</v>
       </c>
       <c r="F24" s="39">
-        <v>5878.71</v>
+        <v>2270.88</v>
       </c>
       <c r="G24" s="39">
         <v>0</v>
@@ -2613,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="39">
         <v>0</v>
@@ -2622,28 +2718,28 @@
         <v>0</v>
       </c>
       <c r="S24" s="39">
-        <v>900</v>
+        <v>378.48</v>
       </c>
       <c r="T24" s="39">
         <v>0</v>
       </c>
       <c r="U24" s="39">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="V24" s="39">
         <v>0</v>
       </c>
       <c r="W24" s="39">
-        <v>18483.74</v>
+        <v>3185.53</v>
       </c>
       <c r="X24" s="39">
-        <v>46835.26</v>
+        <v>22046.47</v>
       </c>
       <c r="Y24" s="40">
-        <v>23417.63</v>
+        <v>11023.235</v>
       </c>
       <c r="Z24" s="40">
-        <v>23417.63</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -2651,25 +2747,25 @@
         <v>56</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C25" s="39">
-        <v>25232</v>
+        <v>65319</v>
       </c>
       <c r="D25" s="39">
-        <v>25232</v>
+        <v>65319</v>
       </c>
       <c r="E25" s="39">
-        <v>336.17</v>
+        <v>9815.03</v>
       </c>
       <c r="F25" s="39">
-        <v>2270.88</v>
+        <v>5878.71</v>
       </c>
       <c r="G25" s="39">
         <v>0</v>
       </c>
       <c r="H25" s="39">
-        <v>1979.46</v>
+        <v>0</v>
       </c>
       <c r="I25" s="40">
         <v>0</v>
@@ -2687,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O25" s="39">
         <v>0</v>
       </c>
       <c r="P25" s="39">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Q25" s="39">
         <v>0</v>
@@ -2702,28 +2798,28 @@
         <v>0</v>
       </c>
       <c r="S25" s="39">
-        <v>378.48</v>
+        <v>900</v>
       </c>
       <c r="T25" s="39">
         <v>0</v>
       </c>
       <c r="U25" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V25" s="39">
         <v>0</v>
       </c>
       <c r="W25" s="39">
-        <v>5164.99</v>
+        <v>18593.74</v>
       </c>
       <c r="X25" s="39">
-        <v>20067.01</v>
+        <v>46725.26</v>
       </c>
       <c r="Y25" s="40">
-        <v>10033.505</v>
+        <v>23362.63</v>
       </c>
       <c r="Z25" s="40">
-        <v>10033.505</v>
+        <v>23362.63</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -2731,19 +2827,19 @@
         <v>57</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C26" s="39">
-        <v>25232</v>
+        <v>17975</v>
       </c>
       <c r="D26" s="39">
-        <v>25232</v>
+        <v>17975</v>
       </c>
       <c r="E26" s="39">
-        <v>336.17</v>
+        <v>0</v>
       </c>
       <c r="F26" s="39">
-        <v>2270.88</v>
+        <v>1617.75</v>
       </c>
       <c r="G26" s="39">
         <v>0</v>
@@ -2752,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="40">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J26" s="40">
         <v>0</v>
@@ -2767,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="39">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O26" s="39">
         <v>0</v>
       </c>
       <c r="P26" s="39">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q26" s="39">
         <v>0</v>
@@ -2782,48 +2878,48 @@
         <v>0</v>
       </c>
       <c r="S26" s="39">
-        <v>378.48</v>
+        <v>269.62</v>
       </c>
       <c r="T26" s="39">
         <v>0</v>
       </c>
       <c r="U26" s="39">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="V26" s="39">
         <v>0</v>
       </c>
       <c r="W26" s="39">
-        <v>7175.53</v>
+        <v>3587.37</v>
       </c>
       <c r="X26" s="39">
-        <v>18056.47</v>
+        <v>14387.63</v>
       </c>
       <c r="Y26" s="40">
-        <v>9028.235</v>
+        <v>7193.815</v>
       </c>
       <c r="Z26" s="40">
-        <v>9028.235</v>
+        <v>7193.815</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C27" s="39">
-        <v>25232</v>
+        <v>16758</v>
       </c>
       <c r="D27" s="39">
-        <v>25232</v>
+        <v>16758</v>
       </c>
       <c r="E27" s="39">
-        <v>336.17</v>
+        <v>0</v>
       </c>
       <c r="F27" s="39">
-        <v>2270.88</v>
+        <v>1508.22</v>
       </c>
       <c r="G27" s="39">
         <v>0</v>
@@ -2862,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="39">
-        <v>378.48</v>
+        <v>251.37</v>
       </c>
       <c r="T27" s="39">
         <v>0</v>
@@ -2874,45 +2970,45 @@
         <v>0</v>
       </c>
       <c r="W27" s="39">
-        <v>3185.53</v>
+        <v>1959.59</v>
       </c>
       <c r="X27" s="39">
-        <v>22046.47</v>
+        <v>14798.41</v>
       </c>
       <c r="Y27" s="40">
-        <v>11023.235</v>
+        <v>7399.205</v>
       </c>
       <c r="Z27" s="40">
-        <v>11023.235</v>
+        <v>7399.205</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C28" s="39">
-        <v>66385</v>
+        <v>11538</v>
       </c>
       <c r="D28" s="39">
-        <v>66385</v>
+        <v>11538</v>
       </c>
       <c r="E28" s="39">
-        <v>10101.96</v>
+        <v>0</v>
       </c>
       <c r="F28" s="39">
-        <v>5974.65</v>
+        <v>1038.42</v>
       </c>
       <c r="G28" s="39">
         <v>0</v>
       </c>
       <c r="H28" s="39">
-        <v>3956.05</v>
+        <v>1904.89</v>
       </c>
       <c r="I28" s="40">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J28" s="40">
         <v>0</v>
@@ -2924,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="39">
-        <v>655.56</v>
+        <v>1311.12</v>
       </c>
       <c r="N28" s="39">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O28" s="39">
         <v>0</v>
@@ -2936,60 +3032,60 @@
         <v>0</v>
       </c>
       <c r="Q28" s="39">
-        <v>2274.34</v>
+        <v>1126.61</v>
       </c>
       <c r="R28" s="39">
         <v>0</v>
       </c>
       <c r="S28" s="39">
-        <v>900</v>
+        <v>173.07</v>
       </c>
       <c r="T28" s="39">
         <v>0</v>
       </c>
       <c r="U28" s="39">
-        <v>11854</v>
+        <v>0</v>
       </c>
       <c r="V28" s="39">
         <v>0</v>
       </c>
       <c r="W28" s="39">
-        <v>37316.56</v>
+        <v>6054.11</v>
       </c>
       <c r="X28" s="39">
-        <v>29068.44</v>
+        <v>5483.89</v>
       </c>
       <c r="Y28" s="40">
-        <v>14534.22</v>
+        <v>2741.945</v>
       </c>
       <c r="Z28" s="40">
-        <v>14534.22</v>
+        <v>2741.945</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C29" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="D29" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="E29" s="39">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="F29" s="39">
-        <v>1189.26</v>
+        <v>2270.88</v>
       </c>
       <c r="G29" s="39">
         <v>0</v>
       </c>
       <c r="H29" s="39">
-        <v>0</v>
+        <v>1430.08</v>
       </c>
       <c r="I29" s="40">
         <v>0</v>
@@ -3004,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N29" s="39">
         <v>200</v>
@@ -3022,48 +3118,48 @@
         <v>0</v>
       </c>
       <c r="S29" s="39">
-        <v>198.21</v>
+        <v>378.48</v>
       </c>
       <c r="T29" s="39">
         <v>0</v>
       </c>
       <c r="U29" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V29" s="39">
         <v>0</v>
       </c>
       <c r="W29" s="39">
-        <v>1587.47</v>
+        <v>5771.17</v>
       </c>
       <c r="X29" s="39">
-        <v>11626.53</v>
+        <v>19460.83</v>
       </c>
       <c r="Y29" s="40">
-        <v>5813.265</v>
+        <v>9730.415</v>
       </c>
       <c r="Z29" s="40">
-        <v>5813.265</v>
+        <v>9730.415</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C30" s="39">
-        <v>51155</v>
+        <v>13214</v>
       </c>
       <c r="D30" s="39">
-        <v>51155</v>
+        <v>13214</v>
       </c>
       <c r="E30" s="39">
-        <v>6002.55</v>
+        <v>0</v>
       </c>
       <c r="F30" s="39">
-        <v>4603.95</v>
+        <v>1189.26</v>
       </c>
       <c r="G30" s="39">
         <v>0</v>
@@ -3072,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="40">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J30" s="40">
         <v>0</v>
@@ -3102,28 +3198,28 @@
         <v>0</v>
       </c>
       <c r="S30" s="39">
-        <v>767.32</v>
+        <v>198.21</v>
       </c>
       <c r="T30" s="39">
         <v>0</v>
       </c>
       <c r="U30" s="39">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="V30" s="39">
         <v>0</v>
       </c>
       <c r="W30" s="39">
-        <v>13773.82</v>
+        <v>2087.47</v>
       </c>
       <c r="X30" s="39">
-        <v>37381.18</v>
+        <v>11126.53</v>
       </c>
       <c r="Y30" s="40">
-        <v>18690.59</v>
+        <v>5563.265</v>
       </c>
       <c r="Z30" s="40">
-        <v>18690.59</v>
+        <v>5563.265</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3131,19 +3227,19 @@
         <v>63</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C31" s="39">
-        <v>66385</v>
+        <v>13214</v>
       </c>
       <c r="D31" s="39">
-        <v>66385</v>
+        <v>13214</v>
       </c>
       <c r="E31" s="39">
-        <v>10101.96</v>
+        <v>0</v>
       </c>
       <c r="F31" s="39">
-        <v>5974.65</v>
+        <v>1189.26</v>
       </c>
       <c r="G31" s="39">
         <v>0</v>
@@ -3167,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="39">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O31" s="39">
         <v>0</v>
       </c>
       <c r="P31" s="39">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="39">
         <v>0</v>
@@ -3182,48 +3278,48 @@
         <v>0</v>
       </c>
       <c r="S31" s="39">
-        <v>900</v>
+        <v>198.21</v>
       </c>
       <c r="T31" s="39">
         <v>0</v>
       </c>
       <c r="U31" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V31" s="39">
         <v>0</v>
       </c>
       <c r="W31" s="39">
-        <v>19576.61</v>
+        <v>2087.47</v>
       </c>
       <c r="X31" s="39">
-        <v>46808.39</v>
+        <v>11126.53</v>
       </c>
       <c r="Y31" s="40">
-        <v>23404.195</v>
+        <v>5563.265</v>
       </c>
       <c r="Z31" s="40">
-        <v>23404.195</v>
+        <v>5563.265</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="39">
-        <v>17688</v>
+        <v>13214</v>
       </c>
       <c r="D32" s="39">
-        <v>17688</v>
+        <v>13214</v>
       </c>
       <c r="E32" s="39">
         <v>0</v>
       </c>
       <c r="F32" s="39">
-        <v>1591.92</v>
+        <v>1189.26</v>
       </c>
       <c r="G32" s="39">
         <v>0</v>
@@ -3247,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="39">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O32" s="39">
         <v>0</v>
@@ -3256,54 +3352,54 @@
         <v>0</v>
       </c>
       <c r="Q32" s="39">
-        <v>9630.76</v>
+        <v>0</v>
       </c>
       <c r="R32" s="39">
         <v>0</v>
       </c>
       <c r="S32" s="39">
-        <v>265.32</v>
+        <v>198.21</v>
       </c>
       <c r="T32" s="39">
         <v>0</v>
       </c>
       <c r="U32" s="39">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="V32" s="39">
         <v>0</v>
       </c>
       <c r="W32" s="39">
-        <v>12688</v>
+        <v>2087.47</v>
       </c>
       <c r="X32" s="39">
-        <v>5000</v>
+        <v>11126.53</v>
       </c>
       <c r="Y32" s="40">
-        <v>2500</v>
+        <v>5563.265</v>
       </c>
       <c r="Z32" s="40">
-        <v>2500</v>
+        <v>5563.265</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C33" s="39">
-        <v>9999.99</v>
+        <v>13214</v>
       </c>
       <c r="D33" s="39">
-        <v>9999.99</v>
+        <v>13214</v>
       </c>
       <c r="E33" s="39">
         <v>0</v>
       </c>
       <c r="F33" s="39">
-        <v>1346.49</v>
+        <v>1189.26</v>
       </c>
       <c r="G33" s="39">
         <v>0</v>
@@ -3342,54 +3438,54 @@
         <v>0</v>
       </c>
       <c r="S33" s="39">
-        <v>224.41</v>
+        <v>198.21</v>
       </c>
       <c r="T33" s="39">
         <v>0</v>
       </c>
       <c r="U33" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V33" s="39">
         <v>0</v>
       </c>
       <c r="W33" s="39">
-        <v>1770.9</v>
+        <v>2087.47</v>
       </c>
       <c r="X33" s="39">
-        <v>8229.09</v>
+        <v>11126.53</v>
       </c>
       <c r="Y33" s="40">
-        <v>4114.545</v>
+        <v>5563.265</v>
       </c>
       <c r="Z33" s="40">
-        <v>4114.545</v>
+        <v>5563.265</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C34" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="D34" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="E34" s="39">
-        <v>9815.03</v>
+        <v>336.17</v>
       </c>
       <c r="F34" s="39">
-        <v>5878.71</v>
+        <v>2270.88</v>
       </c>
       <c r="G34" s="39">
         <v>0</v>
       </c>
       <c r="H34" s="39">
-        <v>7136.46</v>
+        <v>0</v>
       </c>
       <c r="I34" s="40">
         <v>0</v>
@@ -3407,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="39">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O34" s="39">
         <v>0</v>
@@ -3422,36 +3518,36 @@
         <v>0</v>
       </c>
       <c r="S34" s="39">
-        <v>900</v>
+        <v>378.48</v>
       </c>
       <c r="T34" s="39">
         <v>0</v>
       </c>
       <c r="U34" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V34" s="39">
         <v>0</v>
       </c>
       <c r="W34" s="39">
-        <v>24530.2</v>
+        <v>3685.53</v>
       </c>
       <c r="X34" s="39">
-        <v>40788.8</v>
+        <v>21546.47</v>
       </c>
       <c r="Y34" s="40">
-        <v>20394.4</v>
+        <v>10773.235</v>
       </c>
       <c r="Z34" s="40">
-        <v>20394.4</v>
+        <v>10773.235</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="39">
         <v>25232</v>
@@ -3508,51 +3604,51 @@
         <v>0</v>
       </c>
       <c r="U35" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V35" s="39">
         <v>0</v>
       </c>
       <c r="W35" s="39">
-        <v>3185.53</v>
+        <v>3685.53</v>
       </c>
       <c r="X35" s="39">
-        <v>22046.47</v>
+        <v>21546.47</v>
       </c>
       <c r="Y35" s="40">
-        <v>11023.235</v>
+        <v>10773.235</v>
       </c>
       <c r="Z35" s="40">
-        <v>11023.235</v>
+        <v>10773.235</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C36" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="D36" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="E36" s="39">
-        <v>9815.03</v>
+        <v>336.17</v>
       </c>
       <c r="F36" s="39">
-        <v>5878.71</v>
+        <v>2270.88</v>
       </c>
       <c r="G36" s="39">
         <v>0</v>
       </c>
       <c r="H36" s="39">
-        <v>9417.5</v>
+        <v>0</v>
       </c>
       <c r="I36" s="40">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J36" s="40">
         <v>0</v>
@@ -3564,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="39">
-        <v>1311.12</v>
+        <v>0</v>
       </c>
       <c r="N36" s="39">
         <v>200</v>
@@ -3573,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="39">
         <v>0</v>
@@ -3582,48 +3678,48 @@
         <v>0</v>
       </c>
       <c r="S36" s="39">
-        <v>900</v>
+        <v>378.48</v>
       </c>
       <c r="T36" s="39">
         <v>0</v>
       </c>
       <c r="U36" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V36" s="39">
         <v>0</v>
       </c>
       <c r="W36" s="39">
-        <v>29222.36</v>
+        <v>3685.53</v>
       </c>
       <c r="X36" s="39">
-        <v>36096.64</v>
+        <v>21546.47</v>
       </c>
       <c r="Y36" s="40">
-        <v>18048.32</v>
+        <v>10773.235</v>
       </c>
       <c r="Z36" s="40">
-        <v>18048.32</v>
+        <v>10773.235</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="38" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C37" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="D37" s="39">
-        <v>65319</v>
+        <v>25232</v>
       </c>
       <c r="E37" s="39">
-        <v>9815.03</v>
+        <v>336.17</v>
       </c>
       <c r="F37" s="39">
-        <v>5878.71</v>
+        <v>2270.88</v>
       </c>
       <c r="G37" s="39">
         <v>0</v>
@@ -3644,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N37" s="39">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O37" s="39">
         <v>0</v>
       </c>
       <c r="P37" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="39">
         <v>0</v>
@@ -3662,48 +3758,48 @@
         <v>0</v>
       </c>
       <c r="S37" s="39">
-        <v>900</v>
+        <v>378.48</v>
       </c>
       <c r="T37" s="39">
         <v>0</v>
       </c>
       <c r="U37" s="39">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="V37" s="39">
         <v>0</v>
       </c>
       <c r="W37" s="39">
-        <v>21649.3</v>
+        <v>3685.53</v>
       </c>
       <c r="X37" s="39">
-        <v>43669.7</v>
+        <v>21546.47</v>
       </c>
       <c r="Y37" s="40">
-        <v>21834.85</v>
+        <v>10773.235</v>
       </c>
       <c r="Z37" s="40">
-        <v>21834.85</v>
+        <v>10773.235</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C38" s="39">
-        <v>30531</v>
+        <v>25232</v>
       </c>
       <c r="D38" s="39">
-        <v>30531</v>
+        <v>25232</v>
       </c>
       <c r="E38" s="39">
-        <v>1286.02</v>
+        <v>336.17</v>
       </c>
       <c r="F38" s="39">
-        <v>2747.79</v>
+        <v>2270.88</v>
       </c>
       <c r="G38" s="39">
         <v>0</v>
@@ -3742,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="39">
-        <v>457.96</v>
+        <v>378.48</v>
       </c>
       <c r="T38" s="39">
         <v>0</v>
@@ -3754,45 +3850,45 @@
         <v>0</v>
       </c>
       <c r="W38" s="39">
-        <v>4691.77</v>
+        <v>3185.53</v>
       </c>
       <c r="X38" s="39">
-        <v>25839.23</v>
+        <v>22046.47</v>
       </c>
       <c r="Y38" s="40">
-        <v>12919.615</v>
+        <v>11023.235</v>
       </c>
       <c r="Z38" s="40">
-        <v>12919.615</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C39" s="39">
-        <v>66385</v>
+        <v>65319</v>
       </c>
       <c r="D39" s="39">
-        <v>66385</v>
+        <v>65319</v>
       </c>
       <c r="E39" s="39">
-        <v>10101.96</v>
+        <v>9815.03</v>
       </c>
       <c r="F39" s="39">
-        <v>5974.65</v>
+        <v>5878.71</v>
       </c>
       <c r="G39" s="39">
-        <v>182.14</v>
+        <v>0</v>
       </c>
       <c r="H39" s="39">
-        <v>7227.36</v>
+        <v>1569.01</v>
       </c>
       <c r="I39" s="40">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J39" s="40">
         <v>0</v>
@@ -3804,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="39">
-        <v>1311.12</v>
+        <v>655.56</v>
       </c>
       <c r="N39" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="O39" s="39">
         <v>0</v>
       </c>
       <c r="P39" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q39" s="39">
         <v>0</v>
@@ -3828,794 +3924,2028 @@
         <v>0</v>
       </c>
       <c r="U39" s="39">
+        <v>3100</v>
+      </c>
+      <c r="V39" s="39">
+        <v>0</v>
+      </c>
+      <c r="W39" s="39">
+        <v>24218.31</v>
+      </c>
+      <c r="X39" s="39">
+        <v>41100.69</v>
+      </c>
+      <c r="Y39" s="40">
+        <v>20550.345</v>
+      </c>
+      <c r="Z39" s="40">
+        <v>20550.345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="39">
+        <v>30531</v>
+      </c>
+      <c r="D40" s="39">
+        <v>30531</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1286.02</v>
+      </c>
+      <c r="F40" s="39">
+        <v>2747.79</v>
+      </c>
+      <c r="G40" s="39">
+        <v>0</v>
+      </c>
+      <c r="H40" s="39">
+        <v>0</v>
+      </c>
+      <c r="I40" s="40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N40" s="39">
+        <v>200</v>
+      </c>
+      <c r="O40" s="39">
+        <v>0</v>
+      </c>
+      <c r="P40" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="39">
+        <v>0</v>
+      </c>
+      <c r="R40" s="39">
+        <v>0</v>
+      </c>
+      <c r="S40" s="39">
+        <v>457.96</v>
+      </c>
+      <c r="T40" s="39">
+        <v>0</v>
+      </c>
+      <c r="U40" s="39">
+        <v>1500</v>
+      </c>
+      <c r="V40" s="39">
+        <v>0</v>
+      </c>
+      <c r="W40" s="39">
+        <v>6847.33</v>
+      </c>
+      <c r="X40" s="39">
+        <v>23683.67</v>
+      </c>
+      <c r="Y40" s="40">
+        <v>11841.835</v>
+      </c>
+      <c r="Z40" s="40">
+        <v>11841.835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="39">
+        <v>40637</v>
+      </c>
+      <c r="D41" s="39">
+        <v>40637</v>
+      </c>
+      <c r="E41" s="39">
+        <v>3249.08</v>
+      </c>
+      <c r="F41" s="39">
+        <v>3657.33</v>
+      </c>
+      <c r="G41" s="39">
+        <v>0</v>
+      </c>
+      <c r="H41" s="39">
+        <v>5578.99</v>
+      </c>
+      <c r="I41" s="40">
+        <v>0</v>
+      </c>
+      <c r="J41" s="40">
+        <v>0</v>
+      </c>
+      <c r="K41" s="40">
+        <v>0</v>
+      </c>
+      <c r="L41" s="40">
+        <v>0</v>
+      </c>
+      <c r="M41" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N41" s="39">
+        <v>200</v>
+      </c>
+      <c r="O41" s="39">
+        <v>0</v>
+      </c>
+      <c r="P41" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="39">
+        <v>0</v>
+      </c>
+      <c r="R41" s="39">
+        <v>0</v>
+      </c>
+      <c r="S41" s="39">
+        <v>609.55</v>
+      </c>
+      <c r="T41" s="39">
+        <v>0</v>
+      </c>
+      <c r="U41" s="39">
+        <v>4500</v>
+      </c>
+      <c r="V41" s="39">
+        <v>0</v>
+      </c>
+      <c r="W41" s="39">
+        <v>18450.51</v>
+      </c>
+      <c r="X41" s="39">
+        <v>22186.49</v>
+      </c>
+      <c r="Y41" s="40">
+        <v>11093.245</v>
+      </c>
+      <c r="Z41" s="40">
+        <v>11093.245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="39">
+        <v>51155</v>
+      </c>
+      <c r="D42" s="39">
+        <v>51155</v>
+      </c>
+      <c r="E42" s="39">
+        <v>6002.55</v>
+      </c>
+      <c r="F42" s="39">
+        <v>4603.95</v>
+      </c>
+      <c r="G42" s="39">
+        <v>0</v>
+      </c>
+      <c r="H42" s="39">
+        <v>3690.08</v>
+      </c>
+      <c r="I42" s="40">
+        <v>0</v>
+      </c>
+      <c r="J42" s="40">
+        <v>0</v>
+      </c>
+      <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40">
+        <v>0</v>
+      </c>
+      <c r="M42" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N42" s="39">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="39">
+        <v>0</v>
+      </c>
+      <c r="P42" s="39">
+        <v>1000</v>
+      </c>
+      <c r="Q42" s="39">
+        <v>0</v>
+      </c>
+      <c r="R42" s="39">
+        <v>0</v>
+      </c>
+      <c r="S42" s="39">
+        <v>767.32</v>
+      </c>
+      <c r="T42" s="39">
+        <v>0</v>
+      </c>
+      <c r="U42" s="39">
+        <v>500</v>
+      </c>
+      <c r="V42" s="39">
+        <v>0</v>
+      </c>
+      <c r="W42" s="39">
+        <v>18219.46</v>
+      </c>
+      <c r="X42" s="39">
+        <v>32935.54</v>
+      </c>
+      <c r="Y42" s="40">
+        <v>16467.77</v>
+      </c>
+      <c r="Z42" s="40">
+        <v>16467.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="39">
+        <v>73811</v>
+      </c>
+      <c r="D43" s="39">
+        <v>73811</v>
+      </c>
+      <c r="E43" s="39">
+        <v>12354.29</v>
+      </c>
+      <c r="F43" s="39">
+        <v>6642.99</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0</v>
+      </c>
+      <c r="I43" s="40">
+        <v>0</v>
+      </c>
+      <c r="J43" s="40">
+        <v>0</v>
+      </c>
+      <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
+        <v>0</v>
+      </c>
+      <c r="M43" s="39">
+        <v>0</v>
+      </c>
+      <c r="N43" s="39">
+        <v>700</v>
+      </c>
+      <c r="O43" s="39">
+        <v>0</v>
+      </c>
+      <c r="P43" s="39">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="39">
+        <v>0</v>
+      </c>
+      <c r="R43" s="39">
+        <v>0</v>
+      </c>
+      <c r="S43" s="39">
+        <v>900</v>
+      </c>
+      <c r="T43" s="39">
+        <v>0</v>
+      </c>
+      <c r="U43" s="39">
+        <v>0</v>
+      </c>
+      <c r="V43" s="39">
+        <v>0</v>
+      </c>
+      <c r="W43" s="39">
+        <v>21097.28</v>
+      </c>
+      <c r="X43" s="39">
+        <v>52713.72</v>
+      </c>
+      <c r="Y43" s="40">
+        <v>26356.86</v>
+      </c>
+      <c r="Z43" s="40">
+        <v>26356.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="39">
+        <v>46008</v>
+      </c>
+      <c r="D44" s="39">
+        <v>46008</v>
+      </c>
+      <c r="E44" s="39">
+        <v>4617.15</v>
+      </c>
+      <c r="F44" s="39">
+        <v>4140.72</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0</v>
+      </c>
+      <c r="H44" s="39">
+        <v>5687.67</v>
+      </c>
+      <c r="I44" s="40">
+        <v>200</v>
+      </c>
+      <c r="J44" s="40">
+        <v>0</v>
+      </c>
+      <c r="K44" s="40">
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
+        <v>0</v>
+      </c>
+      <c r="M44" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N44" s="39">
+        <v>200</v>
+      </c>
+      <c r="O44" s="39">
+        <v>0</v>
+      </c>
+      <c r="P44" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>1350.9</v>
+      </c>
+      <c r="R44" s="39">
+        <v>0</v>
+      </c>
+      <c r="S44" s="39">
+        <v>690.12</v>
+      </c>
+      <c r="T44" s="39">
+        <v>0</v>
+      </c>
+      <c r="U44" s="39">
+        <v>0</v>
+      </c>
+      <c r="V44" s="39">
+        <v>0</v>
+      </c>
+      <c r="W44" s="39">
+        <v>17542.12</v>
+      </c>
+      <c r="X44" s="39">
+        <v>28465.88</v>
+      </c>
+      <c r="Y44" s="40">
+        <v>14232.94</v>
+      </c>
+      <c r="Z44" s="40">
+        <v>14232.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="39">
+        <v>20754</v>
+      </c>
+      <c r="D45" s="39">
+        <v>20754</v>
+      </c>
+      <c r="E45" s="39">
+        <v>0</v>
+      </c>
+      <c r="F45" s="39">
+        <v>1867.86</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0</v>
+      </c>
+      <c r="H45" s="39">
+        <v>2025.7</v>
+      </c>
+      <c r="I45" s="40">
+        <v>0</v>
+      </c>
+      <c r="J45" s="40">
+        <v>0</v>
+      </c>
+      <c r="K45" s="40">
+        <v>0</v>
+      </c>
+      <c r="L45" s="40">
+        <v>0</v>
+      </c>
+      <c r="M45" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N45" s="39">
+        <v>200</v>
+      </c>
+      <c r="O45" s="39">
+        <v>0</v>
+      </c>
+      <c r="P45" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="39">
+        <v>363.01</v>
+      </c>
+      <c r="R45" s="39">
+        <v>0</v>
+      </c>
+      <c r="S45" s="39">
+        <v>311.31</v>
+      </c>
+      <c r="T45" s="39">
+        <v>0</v>
+      </c>
+      <c r="U45" s="39">
+        <v>0</v>
+      </c>
+      <c r="V45" s="39">
+        <v>0</v>
+      </c>
+      <c r="W45" s="39">
+        <v>5423.44</v>
+      </c>
+      <c r="X45" s="39">
+        <v>15330.56</v>
+      </c>
+      <c r="Y45" s="40">
+        <v>7665.28</v>
+      </c>
+      <c r="Z45" s="40">
+        <v>7665.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="39">
+        <v>17975</v>
+      </c>
+      <c r="D46" s="39">
+        <v>17975</v>
+      </c>
+      <c r="E46" s="39">
+        <v>0</v>
+      </c>
+      <c r="F46" s="39">
+        <v>1617.75</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0</v>
+      </c>
+      <c r="H46" s="39">
+        <v>1662.1</v>
+      </c>
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40">
+        <v>0</v>
+      </c>
+      <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40">
+        <v>0</v>
+      </c>
+      <c r="M46" s="39">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
+        <v>200</v>
+      </c>
+      <c r="O46" s="39">
+        <v>0</v>
+      </c>
+      <c r="P46" s="39">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="39">
+        <v>0</v>
+      </c>
+      <c r="R46" s="39">
+        <v>0</v>
+      </c>
+      <c r="S46" s="39">
+        <v>269.62</v>
+      </c>
+      <c r="T46" s="39">
+        <v>0</v>
+      </c>
+      <c r="U46" s="39">
+        <v>1900</v>
+      </c>
+      <c r="V46" s="39">
+        <v>0</v>
+      </c>
+      <c r="W46" s="39">
+        <v>6449.47</v>
+      </c>
+      <c r="X46" s="39">
+        <v>11525.53</v>
+      </c>
+      <c r="Y46" s="40">
+        <v>5762.765</v>
+      </c>
+      <c r="Z46" s="40">
+        <v>5762.765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="39">
+        <v>13214</v>
+      </c>
+      <c r="D47" s="39">
+        <v>13214</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0</v>
+      </c>
+      <c r="F47" s="39">
+        <v>1189.26</v>
+      </c>
+      <c r="G47" s="39">
+        <v>0</v>
+      </c>
+      <c r="H47" s="39">
+        <v>2281.3</v>
+      </c>
+      <c r="I47" s="40">
+        <v>0</v>
+      </c>
+      <c r="J47" s="40">
+        <v>0</v>
+      </c>
+      <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
+        <v>0</v>
+      </c>
+      <c r="M47" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N47" s="39">
+        <v>600</v>
+      </c>
+      <c r="O47" s="39">
+        <v>0</v>
+      </c>
+      <c r="P47" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="39">
+        <v>0</v>
+      </c>
+      <c r="R47" s="39">
+        <v>0</v>
+      </c>
+      <c r="S47" s="39">
+        <v>198.21</v>
+      </c>
+      <c r="T47" s="39">
+        <v>0</v>
+      </c>
+      <c r="U47" s="39">
+        <v>3100</v>
+      </c>
+      <c r="V47" s="39">
+        <v>0</v>
+      </c>
+      <c r="W47" s="39">
+        <v>8024.33</v>
+      </c>
+      <c r="X47" s="39">
+        <v>5189.67</v>
+      </c>
+      <c r="Y47" s="40">
+        <v>2594.835</v>
+      </c>
+      <c r="Z47" s="40">
+        <v>2594.835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="39">
+        <v>30531</v>
+      </c>
+      <c r="D48" s="39">
+        <v>30531</v>
+      </c>
+      <c r="E48" s="39">
+        <v>1286.02</v>
+      </c>
+      <c r="F48" s="39">
+        <v>2747.79</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+      <c r="H48" s="39">
+        <v>1662.1</v>
+      </c>
+      <c r="I48" s="40">
+        <v>0</v>
+      </c>
+      <c r="J48" s="40">
+        <v>0</v>
+      </c>
+      <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="40">
+        <v>0</v>
+      </c>
+      <c r="M48" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N48" s="39">
+        <v>200</v>
+      </c>
+      <c r="O48" s="39">
+        <v>0</v>
+      </c>
+      <c r="P48" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="39">
+        <v>0</v>
+      </c>
+      <c r="R48" s="39">
+        <v>0</v>
+      </c>
+      <c r="S48" s="39">
+        <v>457.96</v>
+      </c>
+      <c r="T48" s="39">
+        <v>0</v>
+      </c>
+      <c r="U48" s="39">
+        <v>500</v>
+      </c>
+      <c r="V48" s="39">
+        <v>0</v>
+      </c>
+      <c r="W48" s="39">
+        <v>7509.43</v>
+      </c>
+      <c r="X48" s="39">
+        <v>23021.57</v>
+      </c>
+      <c r="Y48" s="40">
+        <v>11510.785</v>
+      </c>
+      <c r="Z48" s="40">
+        <v>11510.785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="39">
+        <v>17688</v>
+      </c>
+      <c r="D49" s="39">
+        <v>17688</v>
+      </c>
+      <c r="E49" s="39">
+        <v>0</v>
+      </c>
+      <c r="F49" s="39">
+        <v>1591.92</v>
+      </c>
+      <c r="G49" s="39">
+        <v>0</v>
+      </c>
+      <c r="H49" s="39">
+        <v>0</v>
+      </c>
+      <c r="I49" s="40">
+        <v>0</v>
+      </c>
+      <c r="J49" s="40">
+        <v>0</v>
+      </c>
+      <c r="K49" s="40">
+        <v>0</v>
+      </c>
+      <c r="L49" s="40">
+        <v>0</v>
+      </c>
+      <c r="M49" s="39">
+        <v>0</v>
+      </c>
+      <c r="N49" s="39">
         <v>100</v>
       </c>
-      <c r="V39" s="39">
-        <v>0</v>
-      </c>
-      <c r="W39" s="39">
-        <v>25997.23</v>
-      </c>
-      <c r="X39" s="39">
-        <v>40387.77</v>
-      </c>
-      <c r="Y39" s="40">
-        <v>20193.885</v>
-      </c>
-      <c r="Z39" s="40">
-        <v>20193.885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="20">
-        <v>1662773.99</v>
-      </c>
-      <c r="D40" s="20">
-        <v>1662773.99</v>
-      </c>
-      <c r="E40" s="20">
-        <v>226793.19</v>
-      </c>
-      <c r="F40" s="20">
-        <v>150096.15</v>
-      </c>
-      <c r="G40" s="20">
-        <v>461.72</v>
-      </c>
-      <c r="H40" s="20">
-        <v>119955.51</v>
-      </c>
-      <c r="I40" s="21">
-        <v>6800</v>
-      </c>
-      <c r="J40" s="21">
-        <v>600</v>
-      </c>
-      <c r="K40" s="21">
-        <v>0</v>
-      </c>
-      <c r="L40" s="21">
-        <v>0</v>
-      </c>
-      <c r="M40" s="20">
-        <v>9177.84</v>
-      </c>
-      <c r="N40" s="20">
-        <v>11200</v>
-      </c>
-      <c r="O40" s="20">
-        <v>0</v>
-      </c>
-      <c r="P40" s="20">
-        <v>7500</v>
-      </c>
-      <c r="Q40" s="20">
-        <v>12689.84</v>
-      </c>
-      <c r="R40" s="20">
-        <v>0</v>
-      </c>
-      <c r="S40" s="20">
-        <v>22249.605</v>
-      </c>
-      <c r="T40" s="20">
-        <v>1957.81</v>
-      </c>
-      <c r="U40" s="20">
-        <v>66558</v>
-      </c>
-      <c r="V40" s="20">
-        <v>0</v>
-      </c>
-      <c r="W40" s="20">
-        <v>647239.665</v>
-      </c>
-      <c r="X40" s="20">
-        <v>1015534.325</v>
-      </c>
-      <c r="Y40" s="21">
-        <v>507767.1625</v>
-      </c>
-      <c r="Z40" s="21">
-        <v>507767.1625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-    </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46" s="21"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
+      <c r="O49" s="39">
+        <v>0</v>
+      </c>
+      <c r="P49" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="39">
+        <v>9630.76</v>
+      </c>
+      <c r="R49" s="39">
+        <v>0</v>
+      </c>
+      <c r="S49" s="39">
+        <v>265.32</v>
+      </c>
+      <c r="T49" s="39">
+        <v>0</v>
+      </c>
+      <c r="U49" s="39">
+        <v>1100</v>
+      </c>
+      <c r="V49" s="39">
+        <v>0</v>
+      </c>
+      <c r="W49" s="39">
+        <v>12688</v>
+      </c>
+      <c r="X49" s="39">
+        <v>5000</v>
+      </c>
+      <c r="Y49" s="40">
+        <v>2500</v>
+      </c>
+      <c r="Z49" s="40">
+        <v>2500</v>
+      </c>
     </row>
     <row r="50" spans="1:35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="A50" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="39">
+        <v>25232</v>
+      </c>
+      <c r="D50" s="39">
+        <v>25232</v>
+      </c>
+      <c r="E50" s="39">
+        <v>336.17</v>
+      </c>
+      <c r="F50" s="39">
+        <v>2270.88</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0</v>
+      </c>
+      <c r="H50" s="39">
+        <v>1425.28</v>
+      </c>
+      <c r="I50" s="40">
+        <v>0</v>
+      </c>
+      <c r="J50" s="40">
+        <v>0</v>
+      </c>
+      <c r="K50" s="40">
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
+        <v>0</v>
+      </c>
+      <c r="M50" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N50" s="39">
+        <v>200</v>
+      </c>
+      <c r="O50" s="39">
+        <v>0</v>
+      </c>
+      <c r="P50" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="39">
+        <v>352.36</v>
+      </c>
+      <c r="R50" s="39">
+        <v>0</v>
+      </c>
+      <c r="S50" s="39">
+        <v>378.48</v>
+      </c>
+      <c r="T50" s="39">
+        <v>0</v>
+      </c>
+      <c r="U50" s="39">
+        <v>0</v>
+      </c>
+      <c r="V50" s="39">
+        <v>0</v>
+      </c>
+      <c r="W50" s="39">
+        <v>5618.73</v>
+      </c>
+      <c r="X50" s="39">
+        <v>19613.27</v>
+      </c>
+      <c r="Y50" s="40">
+        <v>9806.635</v>
+      </c>
+      <c r="Z50" s="40">
+        <v>9806.635</v>
+      </c>
     </row>
     <row r="51" spans="1:35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="A51" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="39">
+        <v>13214</v>
+      </c>
+      <c r="D51" s="39">
+        <v>13214</v>
+      </c>
+      <c r="E51" s="39">
+        <v>0</v>
+      </c>
+      <c r="F51" s="39">
+        <v>1189.26</v>
+      </c>
+      <c r="G51" s="39">
+        <v>0</v>
+      </c>
+      <c r="H51" s="39">
+        <v>0</v>
+      </c>
+      <c r="I51" s="40">
+        <v>0</v>
+      </c>
+      <c r="J51" s="40">
+        <v>0</v>
+      </c>
+      <c r="K51" s="40">
+        <v>0</v>
+      </c>
+      <c r="L51" s="40">
+        <v>0</v>
+      </c>
+      <c r="M51" s="39">
+        <v>0</v>
+      </c>
+      <c r="N51" s="39">
+        <v>200</v>
+      </c>
+      <c r="O51" s="39">
+        <v>0</v>
+      </c>
+      <c r="P51" s="39">
+        <v>500</v>
+      </c>
+      <c r="Q51" s="39">
+        <v>0</v>
+      </c>
+      <c r="R51" s="39">
+        <v>0</v>
+      </c>
+      <c r="S51" s="39">
+        <v>198.21</v>
+      </c>
+      <c r="T51" s="39">
+        <v>0</v>
+      </c>
+      <c r="U51" s="39">
+        <v>200</v>
+      </c>
+      <c r="V51" s="39">
+        <v>0</v>
+      </c>
+      <c r="W51" s="39">
+        <v>2287.47</v>
+      </c>
+      <c r="X51" s="39">
+        <v>10926.53</v>
+      </c>
+      <c r="Y51" s="40">
+        <v>5463.265</v>
+      </c>
+      <c r="Z51" s="40">
+        <v>5463.265</v>
+      </c>
     </row>
     <row r="52" spans="1:35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
+      <c r="A52" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="39">
+        <v>0</v>
+      </c>
+      <c r="D52" s="39">
+        <v>0</v>
+      </c>
+      <c r="E52" s="39">
+        <v>0</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0</v>
+      </c>
+      <c r="G52" s="39">
+        <v>0</v>
+      </c>
+      <c r="H52" s="39">
+        <v>0</v>
+      </c>
+      <c r="I52" s="40">
+        <v>0</v>
+      </c>
+      <c r="J52" s="40">
+        <v>0</v>
+      </c>
+      <c r="K52" s="40">
+        <v>0</v>
+      </c>
+      <c r="L52" s="40">
+        <v>0</v>
+      </c>
+      <c r="M52" s="39">
+        <v>0</v>
+      </c>
+      <c r="N52" s="39">
+        <v>0</v>
+      </c>
+      <c r="O52" s="39">
+        <v>0</v>
+      </c>
+      <c r="P52" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="39">
+        <v>0</v>
+      </c>
+      <c r="R52" s="39">
+        <v>0</v>
+      </c>
+      <c r="S52" s="39">
+        <v>0</v>
+      </c>
+      <c r="T52" s="39">
+        <v>0</v>
+      </c>
+      <c r="U52" s="39">
+        <v>0</v>
+      </c>
+      <c r="V52" s="39">
+        <v>0</v>
+      </c>
+      <c r="W52" s="39">
+        <v>0</v>
+      </c>
+      <c r="X52" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
+      <c r="A53" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="39">
+        <v>25232</v>
+      </c>
+      <c r="D53" s="39">
+        <v>25232</v>
+      </c>
+      <c r="E53" s="39">
+        <v>336.17</v>
+      </c>
+      <c r="F53" s="39">
+        <v>2270.88</v>
+      </c>
+      <c r="G53" s="39">
+        <v>0</v>
+      </c>
+      <c r="H53" s="39">
+        <v>0</v>
+      </c>
+      <c r="I53" s="40">
+        <v>0</v>
+      </c>
+      <c r="J53" s="40">
+        <v>0</v>
+      </c>
+      <c r="K53" s="40">
+        <v>0</v>
+      </c>
+      <c r="L53" s="40">
+        <v>0</v>
+      </c>
+      <c r="M53" s="39">
+        <v>0</v>
+      </c>
+      <c r="N53" s="39">
+        <v>200</v>
+      </c>
+      <c r="O53" s="39">
+        <v>0</v>
+      </c>
+      <c r="P53" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="39">
+        <v>0</v>
+      </c>
+      <c r="R53" s="39">
+        <v>0</v>
+      </c>
+      <c r="S53" s="39">
+        <v>378.48</v>
+      </c>
+      <c r="T53" s="39">
+        <v>0</v>
+      </c>
+      <c r="U53" s="39">
+        <v>0</v>
+      </c>
+      <c r="V53" s="39">
+        <v>0</v>
+      </c>
+      <c r="W53" s="39">
+        <v>3185.53</v>
+      </c>
+      <c r="X53" s="39">
+        <v>22046.47</v>
+      </c>
+      <c r="Y53" s="40">
+        <v>11023.235</v>
+      </c>
+      <c r="Z53" s="40">
+        <v>11023.235</v>
+      </c>
     </row>
     <row r="54" spans="1:35">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="A54" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="39">
+        <v>33584</v>
+      </c>
+      <c r="D54" s="39">
+        <v>33584</v>
+      </c>
+      <c r="E54" s="39">
+        <v>1833.27</v>
+      </c>
+      <c r="F54" s="39">
+        <v>3022.56</v>
+      </c>
+      <c r="G54" s="39">
+        <v>0</v>
+      </c>
+      <c r="H54" s="39">
+        <v>0</v>
+      </c>
+      <c r="I54" s="40">
+        <v>0</v>
+      </c>
+      <c r="J54" s="40">
+        <v>0</v>
+      </c>
+      <c r="K54" s="40">
+        <v>0</v>
+      </c>
+      <c r="L54" s="40">
+        <v>0</v>
+      </c>
+      <c r="M54" s="39">
+        <v>0</v>
+      </c>
+      <c r="N54" s="39">
+        <v>500</v>
+      </c>
+      <c r="O54" s="39">
+        <v>0</v>
+      </c>
+      <c r="P54" s="39">
+        <v>1000</v>
+      </c>
+      <c r="Q54" s="39">
+        <v>0</v>
+      </c>
+      <c r="R54" s="39">
+        <v>0</v>
+      </c>
+      <c r="S54" s="39">
+        <v>503.76</v>
+      </c>
+      <c r="T54" s="39">
+        <v>0</v>
+      </c>
+      <c r="U54" s="39">
+        <v>1000</v>
+      </c>
+      <c r="V54" s="39">
+        <v>0</v>
+      </c>
+      <c r="W54" s="39">
+        <v>7859.59</v>
+      </c>
+      <c r="X54" s="39">
+        <v>25724.41</v>
+      </c>
+      <c r="Y54" s="40">
+        <v>12862.205</v>
+      </c>
+      <c r="Z54" s="40">
+        <v>12862.205</v>
+      </c>
     </row>
     <row r="55" spans="1:35">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
+      <c r="A55" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="39">
+        <v>13152</v>
+      </c>
+      <c r="D55" s="39">
+        <v>13152</v>
+      </c>
+      <c r="E55" s="39">
+        <v>0</v>
+      </c>
+      <c r="F55" s="39">
+        <v>1183.68</v>
+      </c>
+      <c r="G55" s="39">
+        <v>0</v>
+      </c>
+      <c r="H55" s="39">
+        <v>2450.65</v>
+      </c>
+      <c r="I55" s="40">
+        <v>0</v>
+      </c>
+      <c r="J55" s="40">
+        <v>0</v>
+      </c>
+      <c r="K55" s="40">
+        <v>0</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0</v>
+      </c>
+      <c r="M55" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N55" s="39">
+        <v>300</v>
+      </c>
+      <c r="O55" s="39">
+        <v>0</v>
+      </c>
+      <c r="P55" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="39">
+        <v>1600.04</v>
+      </c>
+      <c r="R55" s="39">
+        <v>0</v>
+      </c>
+      <c r="S55" s="39">
+        <v>197.28</v>
+      </c>
+      <c r="T55" s="39">
+        <v>0</v>
+      </c>
+      <c r="U55" s="39">
+        <v>0</v>
+      </c>
+      <c r="V55" s="39">
+        <v>0</v>
+      </c>
+      <c r="W55" s="39">
+        <v>6387.21</v>
+      </c>
+      <c r="X55" s="39">
+        <v>6764.79</v>
+      </c>
+      <c r="Y55" s="40">
+        <v>3382.395</v>
+      </c>
+      <c r="Z55" s="40">
+        <v>3382.395</v>
+      </c>
     </row>
     <row r="56" spans="1:35">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
+      <c r="A56" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="39">
+        <v>13214</v>
+      </c>
+      <c r="D56" s="39">
+        <v>13214</v>
+      </c>
+      <c r="E56" s="39">
+        <v>0</v>
+      </c>
+      <c r="F56" s="39">
+        <v>1189.26</v>
+      </c>
+      <c r="G56" s="39">
+        <v>0</v>
+      </c>
+      <c r="H56" s="39">
+        <v>0</v>
+      </c>
+      <c r="I56" s="40">
+        <v>0</v>
+      </c>
+      <c r="J56" s="40">
+        <v>0</v>
+      </c>
+      <c r="K56" s="40">
+        <v>0</v>
+      </c>
+      <c r="L56" s="40">
+        <v>0</v>
+      </c>
+      <c r="M56" s="39">
+        <v>0</v>
+      </c>
+      <c r="N56" s="39">
+        <v>200</v>
+      </c>
+      <c r="O56" s="39">
+        <v>0</v>
+      </c>
+      <c r="P56" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="39">
+        <v>0</v>
+      </c>
+      <c r="R56" s="39">
+        <v>0</v>
+      </c>
+      <c r="S56" s="39">
+        <v>198.21</v>
+      </c>
+      <c r="T56" s="39">
+        <v>0</v>
+      </c>
+      <c r="U56" s="39">
+        <v>0</v>
+      </c>
+      <c r="V56" s="39">
+        <v>0</v>
+      </c>
+      <c r="W56" s="39">
+        <v>1587.47</v>
+      </c>
+      <c r="X56" s="39">
+        <v>11626.53</v>
+      </c>
+      <c r="Y56" s="40">
+        <v>5813.265</v>
+      </c>
+      <c r="Z56" s="40">
+        <v>5813.265</v>
+      </c>
     </row>
     <row r="57" spans="1:35">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
+      <c r="A57" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="39">
+        <v>30531</v>
+      </c>
+      <c r="D57" s="39">
+        <v>30531</v>
+      </c>
+      <c r="E57" s="39">
+        <v>1286.02</v>
+      </c>
+      <c r="F57" s="39">
+        <v>2747.79</v>
+      </c>
+      <c r="G57" s="39">
+        <v>0</v>
+      </c>
+      <c r="H57" s="39">
+        <v>0</v>
+      </c>
+      <c r="I57" s="40">
+        <v>0</v>
+      </c>
+      <c r="J57" s="40">
+        <v>0</v>
+      </c>
+      <c r="K57" s="40">
+        <v>0</v>
+      </c>
+      <c r="L57" s="40">
+        <v>0</v>
+      </c>
+      <c r="M57" s="39">
+        <v>0</v>
+      </c>
+      <c r="N57" s="39">
+        <v>200</v>
+      </c>
+      <c r="O57" s="39">
+        <v>0</v>
+      </c>
+      <c r="P57" s="39">
+        <v>2000</v>
+      </c>
+      <c r="Q57" s="39">
+        <v>0</v>
+      </c>
+      <c r="R57" s="39">
+        <v>0</v>
+      </c>
+      <c r="S57" s="39">
+        <v>457.96</v>
+      </c>
+      <c r="T57" s="39">
+        <v>0</v>
+      </c>
+      <c r="U57" s="39">
+        <v>100</v>
+      </c>
+      <c r="V57" s="39">
+        <v>0</v>
+      </c>
+      <c r="W57" s="39">
+        <v>6791.77</v>
+      </c>
+      <c r="X57" s="39">
+        <v>23739.23</v>
+      </c>
+      <c r="Y57" s="40">
+        <v>11869.615</v>
+      </c>
+      <c r="Z57" s="40">
+        <v>11869.615</v>
+      </c>
     </row>
     <row r="58" spans="1:35">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="A58" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="39">
+        <v>40637</v>
+      </c>
+      <c r="D58" s="39">
+        <v>40637</v>
+      </c>
+      <c r="E58" s="39">
+        <v>3249</v>
+      </c>
+      <c r="F58" s="39">
+        <v>3657.33</v>
+      </c>
+      <c r="G58" s="39">
+        <v>0</v>
+      </c>
+      <c r="H58" s="39">
+        <v>0</v>
+      </c>
+      <c r="I58" s="40">
+        <v>0</v>
+      </c>
+      <c r="J58" s="40">
+        <v>0</v>
+      </c>
+      <c r="K58" s="40">
+        <v>0</v>
+      </c>
+      <c r="L58" s="40">
+        <v>0</v>
+      </c>
+      <c r="M58" s="39">
+        <v>0</v>
+      </c>
+      <c r="N58" s="39">
+        <v>7000</v>
+      </c>
+      <c r="O58" s="39">
+        <v>0</v>
+      </c>
+      <c r="P58" s="39">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="39">
+        <v>0</v>
+      </c>
+      <c r="R58" s="39">
+        <v>0</v>
+      </c>
+      <c r="S58" s="39">
+        <v>609.55</v>
+      </c>
+      <c r="T58" s="39">
+        <v>0</v>
+      </c>
+      <c r="U58" s="39">
+        <v>0</v>
+      </c>
+      <c r="V58" s="39">
+        <v>0</v>
+      </c>
+      <c r="W58" s="39">
+        <v>15515.88</v>
+      </c>
+      <c r="X58" s="39">
+        <v>25121.12</v>
+      </c>
+      <c r="Y58" s="40">
+        <v>12560.56</v>
+      </c>
+      <c r="Z58" s="40">
+        <v>12560.56</v>
+      </c>
     </row>
     <row r="59" spans="1:35">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="A59" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="39">
+        <v>12952</v>
+      </c>
+      <c r="D59" s="39">
+        <v>12952</v>
+      </c>
+      <c r="E59" s="39">
+        <v>0</v>
+      </c>
+      <c r="F59" s="39">
+        <v>1165.68</v>
+      </c>
+      <c r="G59" s="39">
+        <v>0</v>
+      </c>
+      <c r="H59" s="39">
+        <v>1704.94</v>
+      </c>
+      <c r="I59" s="40">
+        <v>0</v>
+      </c>
+      <c r="J59" s="40">
+        <v>0</v>
+      </c>
+      <c r="K59" s="40">
+        <v>0</v>
+      </c>
+      <c r="L59" s="40">
+        <v>0</v>
+      </c>
+      <c r="M59" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N59" s="39">
+        <v>200</v>
+      </c>
+      <c r="O59" s="39">
+        <v>0</v>
+      </c>
+      <c r="P59" s="39">
+        <v>2000</v>
+      </c>
+      <c r="Q59" s="39">
+        <v>0</v>
+      </c>
+      <c r="R59" s="39">
+        <v>0</v>
+      </c>
+      <c r="S59" s="39">
+        <v>194.28</v>
+      </c>
+      <c r="T59" s="39">
+        <v>0</v>
+      </c>
+      <c r="U59" s="39">
+        <v>0</v>
+      </c>
+      <c r="V59" s="39">
+        <v>0</v>
+      </c>
+      <c r="W59" s="39">
+        <v>5920.46</v>
+      </c>
+      <c r="X59" s="39">
+        <v>7031.54</v>
+      </c>
+      <c r="Y59" s="40">
+        <v>3515.77</v>
+      </c>
+      <c r="Z59" s="40">
+        <v>3515.77</v>
+      </c>
     </row>
     <row r="60" spans="1:35">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
+      <c r="A60" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="39">
+        <v>25232</v>
+      </c>
+      <c r="D60" s="39">
+        <v>25232</v>
+      </c>
+      <c r="E60" s="39">
+        <v>336.17</v>
+      </c>
+      <c r="F60" s="39">
+        <v>2270.88</v>
+      </c>
+      <c r="G60" s="39">
+        <v>0</v>
+      </c>
+      <c r="H60" s="39">
+        <v>1425.29</v>
+      </c>
+      <c r="I60" s="40">
+        <v>0</v>
+      </c>
+      <c r="J60" s="40">
+        <v>0</v>
+      </c>
+      <c r="K60" s="40">
+        <v>0</v>
+      </c>
+      <c r="L60" s="40">
+        <v>0</v>
+      </c>
+      <c r="M60" s="39">
+        <v>0</v>
+      </c>
+      <c r="N60" s="39">
+        <v>200</v>
+      </c>
+      <c r="O60" s="39">
+        <v>0</v>
+      </c>
+      <c r="P60" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="39">
+        <v>0</v>
+      </c>
+      <c r="R60" s="39">
+        <v>0</v>
+      </c>
+      <c r="S60" s="39">
+        <v>378.48</v>
+      </c>
+      <c r="T60" s="39">
+        <v>0</v>
+      </c>
+      <c r="U60" s="39">
+        <v>0</v>
+      </c>
+      <c r="V60" s="39">
+        <v>0</v>
+      </c>
+      <c r="W60" s="39">
+        <v>4610.82</v>
+      </c>
+      <c r="X60" s="39">
+        <v>20621.18</v>
+      </c>
+      <c r="Y60" s="40">
+        <v>10310.59</v>
+      </c>
+      <c r="Z60" s="40">
+        <v>10310.59</v>
+      </c>
     </row>
     <row r="61" spans="1:35">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
+      <c r="A61" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="39">
+        <v>25232</v>
+      </c>
+      <c r="D61" s="39">
+        <v>25232</v>
+      </c>
+      <c r="E61" s="39">
+        <v>336.17</v>
+      </c>
+      <c r="F61" s="39">
+        <v>2270.88</v>
+      </c>
+      <c r="G61" s="39">
+        <v>0</v>
+      </c>
+      <c r="H61" s="39">
+        <v>0</v>
+      </c>
+      <c r="I61" s="40">
+        <v>0</v>
+      </c>
+      <c r="J61" s="40">
+        <v>0</v>
+      </c>
+      <c r="K61" s="40">
+        <v>0</v>
+      </c>
+      <c r="L61" s="40">
+        <v>0</v>
+      </c>
+      <c r="M61" s="39">
+        <v>0</v>
+      </c>
+      <c r="N61" s="39">
+        <v>200</v>
+      </c>
+      <c r="O61" s="39">
+        <v>0</v>
+      </c>
+      <c r="P61" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="39">
+        <v>0</v>
+      </c>
+      <c r="R61" s="39">
+        <v>0</v>
+      </c>
+      <c r="S61" s="39">
+        <v>378.48</v>
+      </c>
+      <c r="T61" s="39">
+        <v>0</v>
+      </c>
+      <c r="U61" s="39">
+        <v>0</v>
+      </c>
+      <c r="V61" s="39">
+        <v>0</v>
+      </c>
+      <c r="W61" s="39">
+        <v>3185.53</v>
+      </c>
+      <c r="X61" s="39">
+        <v>22046.47</v>
+      </c>
+      <c r="Y61" s="40">
+        <v>11023.235</v>
+      </c>
+      <c r="Z61" s="40">
+        <v>11023.235</v>
+      </c>
     </row>
     <row r="62" spans="1:35">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
+      <c r="A62" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="39">
+        <v>65319</v>
+      </c>
+      <c r="D62" s="39">
+        <v>65319</v>
+      </c>
+      <c r="E62" s="39">
+        <v>9815.03</v>
+      </c>
+      <c r="F62" s="39">
+        <v>5878.71</v>
+      </c>
+      <c r="G62" s="39">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39">
+        <v>5124.31</v>
+      </c>
+      <c r="I62" s="40">
+        <v>0</v>
+      </c>
+      <c r="J62" s="40">
+        <v>0</v>
+      </c>
+      <c r="K62" s="40">
+        <v>0</v>
+      </c>
+      <c r="L62" s="40">
+        <v>0</v>
+      </c>
+      <c r="M62" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N62" s="39">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="39">
+        <v>0</v>
+      </c>
+      <c r="P62" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="39">
+        <v>0</v>
+      </c>
+      <c r="R62" s="39">
+        <v>0</v>
+      </c>
+      <c r="S62" s="39">
+        <v>900</v>
+      </c>
+      <c r="T62" s="39">
+        <v>0</v>
+      </c>
+      <c r="U62" s="39">
+        <v>1900</v>
+      </c>
+      <c r="V62" s="39">
+        <v>0</v>
+      </c>
+      <c r="W62" s="39">
+        <v>25273.61</v>
+      </c>
+      <c r="X62" s="39">
+        <v>40045.39</v>
+      </c>
+      <c r="Y62" s="40">
+        <v>20022.695</v>
+      </c>
+      <c r="Z62" s="40">
+        <v>20022.695</v>
+      </c>
     </row>
     <row r="63" spans="1:35">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
+      <c r="A63" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="39">
+        <v>33279</v>
+      </c>
+      <c r="D63" s="39">
+        <v>33279</v>
+      </c>
+      <c r="E63" s="39">
+        <v>1779</v>
+      </c>
+      <c r="F63" s="39">
+        <v>2995.11</v>
+      </c>
+      <c r="G63" s="39">
+        <v>0</v>
+      </c>
+      <c r="H63" s="39">
+        <v>6383.63</v>
+      </c>
+      <c r="I63" s="40">
+        <v>0</v>
+      </c>
+      <c r="J63" s="40">
+        <v>0</v>
+      </c>
+      <c r="K63" s="40">
+        <v>0</v>
+      </c>
+      <c r="L63" s="40">
+        <v>0</v>
+      </c>
+      <c r="M63" s="39">
+        <v>655.56</v>
+      </c>
+      <c r="N63" s="39">
+        <v>200</v>
+      </c>
+      <c r="O63" s="39">
+        <v>0</v>
+      </c>
+      <c r="P63" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="39">
+        <v>0</v>
+      </c>
+      <c r="R63" s="39">
+        <v>0</v>
+      </c>
+      <c r="S63" s="39">
+        <v>499.18</v>
+      </c>
+      <c r="T63" s="39">
+        <v>0</v>
+      </c>
+      <c r="U63" s="39">
+        <v>11010</v>
+      </c>
+      <c r="V63" s="39">
+        <v>0</v>
+      </c>
+      <c r="W63" s="39">
+        <v>23522.48</v>
+      </c>
+      <c r="X63" s="39">
+        <v>9756.52</v>
+      </c>
+      <c r="Y63" s="40">
+        <v>4878.26</v>
+      </c>
+      <c r="Z63" s="40">
+        <v>4878.26</v>
+      </c>
     </row>
     <row r="64" spans="1:35">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
+      <c r="A64" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="39">
+        <v>13214</v>
+      </c>
+      <c r="D64" s="39">
+        <v>13214</v>
+      </c>
+      <c r="E64" s="39">
+        <v>0</v>
+      </c>
+      <c r="F64" s="39">
+        <v>1189.26</v>
+      </c>
+      <c r="G64" s="39">
+        <v>0</v>
+      </c>
+      <c r="H64" s="39">
+        <v>0</v>
+      </c>
+      <c r="I64" s="40">
+        <v>0</v>
+      </c>
+      <c r="J64" s="40">
+        <v>0</v>
+      </c>
+      <c r="K64" s="40">
+        <v>0</v>
+      </c>
+      <c r="L64" s="40">
+        <v>0</v>
+      </c>
+      <c r="M64" s="39">
+        <v>0</v>
+      </c>
+      <c r="N64" s="39">
+        <v>200</v>
+      </c>
+      <c r="O64" s="39">
+        <v>0</v>
+      </c>
+      <c r="P64" s="39">
+        <v>500</v>
+      </c>
+      <c r="Q64" s="39">
+        <v>0</v>
+      </c>
+      <c r="R64" s="39">
+        <v>0</v>
+      </c>
+      <c r="S64" s="39">
+        <v>198.21</v>
+      </c>
+      <c r="T64" s="39">
+        <v>0</v>
+      </c>
+      <c r="U64" s="39">
+        <v>200</v>
+      </c>
+      <c r="V64" s="39">
+        <v>0</v>
+      </c>
+      <c r="W64" s="39">
+        <v>2287.47</v>
+      </c>
+      <c r="X64" s="39">
+        <v>10926.53</v>
+      </c>
+      <c r="Y64" s="40">
+        <v>5463.265</v>
+      </c>
+      <c r="Z64" s="40">
+        <v>5463.265</v>
+      </c>
     </row>
     <row r="65" spans="1:35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="B65" s="22"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -4638,9 +5968,15 @@
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
       <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
+      <c r="X65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="22"/>
@@ -4787,13 +6123,19 @@
       <c r="B71" s="22"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="E71" s="43" t="s">
+        <v>106</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
+      <c r="H71" s="43" t="s">
+        <v>107</v>
+      </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="46" t="s">
+        <v>108</v>
+      </c>
       <c r="L71" s="21"/>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
@@ -4815,13 +6157,19 @@
       <c r="B72" s="22"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="44" t="s">
+        <v>109</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
+      <c r="H72" s="44" t="s">
+        <v>110</v>
+      </c>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
+      <c r="K72" s="47" t="s">
+        <v>111</v>
+      </c>
       <c r="L72" s="21"/>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
@@ -4843,13 +6191,19 @@
       <c r="B73" s="22"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
+      <c r="E73" s="45" t="s">
+        <v>112</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
+      <c r="H73" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
+      <c r="K73" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="L73" s="21"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>

--- a/export_loan_ledger.xlsx
+++ b/export_loan_ledger.xlsx
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:AI509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K73" sqref="K73"/>
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2110,16 +2110,16 @@
         <v>49</v>
       </c>
       <c r="C17" s="39">
-        <v>17063</v>
+        <v>83406</v>
       </c>
       <c r="D17" s="39">
-        <v>17063</v>
+        <v>83406</v>
       </c>
       <c r="E17" s="39">
-        <v>0</v>
+        <v>15453.47</v>
       </c>
       <c r="F17" s="39">
-        <v>1535.67</v>
+        <v>7506.54</v>
       </c>
       <c r="G17" s="39">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>1311.12</v>
       </c>
       <c r="N17" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O17" s="39">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="39">
-        <v>255.94</v>
+        <v>900</v>
       </c>
       <c r="T17" s="39">
         <v>0</v>
@@ -2170,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="W17" s="39">
-        <v>4449.29</v>
+        <v>26817.69</v>
       </c>
       <c r="X17" s="39">
-        <v>12613.71</v>
+        <v>56588.31</v>
       </c>
       <c r="Y17" s="40">
-        <v>6306.855</v>
+        <v>28294.155</v>
       </c>
       <c r="Z17" s="40">
-        <v>6306.855</v>
+        <v>28294.155</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2190,16 +2190,16 @@
         <v>49</v>
       </c>
       <c r="C18" s="39">
-        <v>17063</v>
+        <v>83406</v>
       </c>
       <c r="D18" s="39">
-        <v>17063</v>
+        <v>83406</v>
       </c>
       <c r="E18" s="39">
-        <v>0</v>
+        <v>15453.47</v>
       </c>
       <c r="F18" s="39">
-        <v>1535.67</v>
+        <v>7506.54</v>
       </c>
       <c r="G18" s="39">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O18" s="39">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="39">
-        <v>255.94</v>
+        <v>900</v>
       </c>
       <c r="T18" s="39">
         <v>0</v>
@@ -2250,36 +2250,36 @@
         <v>0</v>
       </c>
       <c r="W18" s="39">
-        <v>18308.44</v>
+        <v>40676.84</v>
       </c>
       <c r="X18" s="39">
-        <v>-1245.44</v>
+        <v>42729.16</v>
       </c>
       <c r="Y18" s="40">
-        <v>-622.72</v>
+        <v>21364.58</v>
       </c>
       <c r="Z18" s="40">
-        <v>-622.72</v>
+        <v>21364.58</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="39">
-        <v>83406</v>
+        <v>30531</v>
       </c>
       <c r="D19" s="39">
-        <v>83406</v>
+        <v>30531</v>
       </c>
       <c r="E19" s="39">
-        <v>15453.47</v>
+        <v>1286.02</v>
       </c>
       <c r="F19" s="39">
-        <v>7506.54</v>
+        <v>2747.79</v>
       </c>
       <c r="G19" s="39">
         <v>0</v>
@@ -2300,72 +2300,72 @@
         <v>0</v>
       </c>
       <c r="M19" s="39">
-        <v>1311.12</v>
+        <v>0</v>
       </c>
       <c r="N19" s="39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O19" s="39">
         <v>0</v>
       </c>
       <c r="P19" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q19" s="39">
-        <v>1146.56</v>
+        <v>0</v>
       </c>
       <c r="R19" s="39">
         <v>0</v>
       </c>
       <c r="S19" s="39">
-        <v>900</v>
+        <v>457.96</v>
       </c>
       <c r="T19" s="39">
         <v>0</v>
       </c>
       <c r="U19" s="39">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="V19" s="39">
         <v>0</v>
       </c>
       <c r="W19" s="39">
-        <v>26817.69</v>
+        <v>6891.77</v>
       </c>
       <c r="X19" s="39">
-        <v>56588.31</v>
+        <v>23639.23</v>
       </c>
       <c r="Y19" s="40">
-        <v>28294.155</v>
+        <v>11819.615</v>
       </c>
       <c r="Z19" s="40">
-        <v>28294.155</v>
+        <v>11819.615</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" s="39">
-        <v>83406</v>
+        <v>25232</v>
       </c>
       <c r="D20" s="39">
-        <v>83406</v>
+        <v>25232</v>
       </c>
       <c r="E20" s="39">
-        <v>15453.47</v>
+        <v>336.17</v>
       </c>
       <c r="F20" s="39">
-        <v>7506.54</v>
+        <v>2270.88</v>
       </c>
       <c r="G20" s="39">
         <v>0</v>
       </c>
       <c r="H20" s="39">
-        <v>10827.19</v>
+        <v>0</v>
       </c>
       <c r="I20" s="40">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O20" s="39">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="39">
-        <v>5489.64</v>
+        <v>0</v>
       </c>
       <c r="R20" s="39">
         <v>0</v>
       </c>
       <c r="S20" s="39">
-        <v>900</v>
+        <v>378.48</v>
       </c>
       <c r="T20" s="39">
         <v>0</v>
@@ -2410,36 +2410,36 @@
         <v>0</v>
       </c>
       <c r="W20" s="39">
-        <v>40676.84</v>
+        <v>3185.53</v>
       </c>
       <c r="X20" s="39">
-        <v>42729.16</v>
+        <v>22046.47</v>
       </c>
       <c r="Y20" s="40">
-        <v>21364.58</v>
+        <v>11023.235</v>
       </c>
       <c r="Z20" s="40">
-        <v>21364.58</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C21" s="39">
-        <v>30531</v>
+        <v>29883</v>
       </c>
       <c r="D21" s="39">
-        <v>30531</v>
+        <v>29883</v>
       </c>
       <c r="E21" s="39">
-        <v>1286.02</v>
+        <v>1169.86</v>
       </c>
       <c r="F21" s="39">
-        <v>2747.79</v>
+        <v>2689.47</v>
       </c>
       <c r="G21" s="39">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="39">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="O21" s="39">
         <v>0</v>
       </c>
       <c r="P21" s="39">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="Q21" s="39">
         <v>0</v>
@@ -2478,33 +2478,33 @@
         <v>0</v>
       </c>
       <c r="S21" s="39">
-        <v>457.96</v>
+        <v>448.24</v>
       </c>
       <c r="T21" s="39">
         <v>0</v>
       </c>
       <c r="U21" s="39">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="V21" s="39">
         <v>0</v>
       </c>
       <c r="W21" s="39">
-        <v>6891.77</v>
+        <v>19307.57</v>
       </c>
       <c r="X21" s="39">
-        <v>23639.23</v>
+        <v>10575.43</v>
       </c>
       <c r="Y21" s="40">
-        <v>11819.615</v>
+        <v>5287.715</v>
       </c>
       <c r="Z21" s="40">
-        <v>11819.615</v>
+        <v>5287.715</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>53</v>
@@ -2584,22 +2584,22 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="39">
-        <v>29883</v>
+        <v>65319</v>
       </c>
       <c r="D23" s="39">
-        <v>29883</v>
+        <v>65319</v>
       </c>
       <c r="E23" s="39">
-        <v>1169.86</v>
+        <v>9815.03</v>
       </c>
       <c r="F23" s="39">
-        <v>2689.47</v>
+        <v>5878.71</v>
       </c>
       <c r="G23" s="39">
         <v>0</v>
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="39">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O23" s="39">
         <v>0</v>
       </c>
       <c r="P23" s="39">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="Q23" s="39">
         <v>0</v>
@@ -2638,48 +2638,48 @@
         <v>0</v>
       </c>
       <c r="S23" s="39">
-        <v>448.24</v>
+        <v>900</v>
       </c>
       <c r="T23" s="39">
         <v>0</v>
       </c>
       <c r="U23" s="39">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="V23" s="39">
         <v>0</v>
       </c>
       <c r="W23" s="39">
-        <v>19307.57</v>
+        <v>18593.74</v>
       </c>
       <c r="X23" s="39">
-        <v>10575.43</v>
+        <v>46725.26</v>
       </c>
       <c r="Y23" s="40">
-        <v>5287.715</v>
+        <v>23362.63</v>
       </c>
       <c r="Z23" s="40">
-        <v>5287.715</v>
+        <v>23362.63</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C24" s="39">
-        <v>25232</v>
+        <v>17975</v>
       </c>
       <c r="D24" s="39">
-        <v>25232</v>
+        <v>17975</v>
       </c>
       <c r="E24" s="39">
-        <v>336.17</v>
+        <v>0</v>
       </c>
       <c r="F24" s="39">
-        <v>2270.88</v>
+        <v>1617.75</v>
       </c>
       <c r="G24" s="39">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="39">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Q24" s="39">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="39">
-        <v>378.48</v>
+        <v>269.62</v>
       </c>
       <c r="T24" s="39">
         <v>0</v>
@@ -2730,36 +2730,36 @@
         <v>0</v>
       </c>
       <c r="W24" s="39">
-        <v>3185.53</v>
+        <v>3587.37</v>
       </c>
       <c r="X24" s="39">
-        <v>22046.47</v>
+        <v>14387.63</v>
       </c>
       <c r="Y24" s="40">
-        <v>11023.235</v>
+        <v>7193.815</v>
       </c>
       <c r="Z24" s="40">
-        <v>11023.235</v>
+        <v>7193.815</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C25" s="39">
-        <v>65319</v>
+        <v>16758</v>
       </c>
       <c r="D25" s="39">
-        <v>65319</v>
+        <v>16758</v>
       </c>
       <c r="E25" s="39">
-        <v>9815.03</v>
+        <v>0</v>
       </c>
       <c r="F25" s="39">
-        <v>5878.71</v>
+        <v>1508.22</v>
       </c>
       <c r="G25" s="39">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O25" s="39">
         <v>0</v>
       </c>
       <c r="P25" s="39">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="39">
         <v>0</v>
@@ -2798,54 +2798,54 @@
         <v>0</v>
       </c>
       <c r="S25" s="39">
-        <v>900</v>
+        <v>251.37</v>
       </c>
       <c r="T25" s="39">
         <v>0</v>
       </c>
       <c r="U25" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V25" s="39">
         <v>0</v>
       </c>
       <c r="W25" s="39">
-        <v>18593.74</v>
+        <v>1959.59</v>
       </c>
       <c r="X25" s="39">
-        <v>46725.26</v>
+        <v>14798.41</v>
       </c>
       <c r="Y25" s="40">
-        <v>23362.63</v>
+        <v>7399.205</v>
       </c>
       <c r="Z25" s="40">
-        <v>23362.63</v>
+        <v>7399.205</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="39">
-        <v>17975</v>
+        <v>11538</v>
       </c>
       <c r="D26" s="39">
-        <v>17975</v>
+        <v>11538</v>
       </c>
       <c r="E26" s="39">
         <v>0</v>
       </c>
       <c r="F26" s="39">
-        <v>1617.75</v>
+        <v>1038.42</v>
       </c>
       <c r="G26" s="39">
         <v>0</v>
       </c>
       <c r="H26" s="39">
-        <v>0</v>
+        <v>1904.89</v>
       </c>
       <c r="I26" s="40">
         <v>0</v>
@@ -2860,25 +2860,25 @@
         <v>0</v>
       </c>
       <c r="M26" s="39">
-        <v>0</v>
+        <v>1311.12</v>
       </c>
       <c r="N26" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O26" s="39">
         <v>0</v>
       </c>
       <c r="P26" s="39">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="39">
-        <v>0</v>
+        <v>1126.61</v>
       </c>
       <c r="R26" s="39">
         <v>0</v>
       </c>
       <c r="S26" s="39">
-        <v>269.62</v>
+        <v>173.07</v>
       </c>
       <c r="T26" s="39">
         <v>0</v>
@@ -2890,42 +2890,42 @@
         <v>0</v>
       </c>
       <c r="W26" s="39">
-        <v>3587.37</v>
+        <v>6054.11</v>
       </c>
       <c r="X26" s="39">
-        <v>14387.63</v>
+        <v>5483.89</v>
       </c>
       <c r="Y26" s="40">
-        <v>7193.815</v>
+        <v>2741.945</v>
       </c>
       <c r="Z26" s="40">
-        <v>7193.815</v>
+        <v>2741.945</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C27" s="39">
-        <v>16758</v>
+        <v>25232</v>
       </c>
       <c r="D27" s="39">
-        <v>16758</v>
+        <v>25232</v>
       </c>
       <c r="E27" s="39">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="F27" s="39">
-        <v>1508.22</v>
+        <v>2270.88</v>
       </c>
       <c r="G27" s="39">
         <v>0</v>
       </c>
       <c r="H27" s="39">
-        <v>0</v>
+        <v>1430.08</v>
       </c>
       <c r="I27" s="40">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N27" s="39">
         <v>200</v>
@@ -2958,54 +2958,54 @@
         <v>0</v>
       </c>
       <c r="S27" s="39">
-        <v>251.37</v>
+        <v>378.48</v>
       </c>
       <c r="T27" s="39">
         <v>0</v>
       </c>
       <c r="U27" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V27" s="39">
         <v>0</v>
       </c>
       <c r="W27" s="39">
-        <v>1959.59</v>
+        <v>5771.17</v>
       </c>
       <c r="X27" s="39">
-        <v>14798.41</v>
+        <v>19460.83</v>
       </c>
       <c r="Y27" s="40">
-        <v>7399.205</v>
+        <v>9730.415</v>
       </c>
       <c r="Z27" s="40">
-        <v>7399.205</v>
+        <v>9730.415</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C28" s="39">
-        <v>11538</v>
+        <v>13214</v>
       </c>
       <c r="D28" s="39">
-        <v>11538</v>
+        <v>13214</v>
       </c>
       <c r="E28" s="39">
         <v>0</v>
       </c>
       <c r="F28" s="39">
-        <v>1038.42</v>
+        <v>1189.26</v>
       </c>
       <c r="G28" s="39">
         <v>0</v>
       </c>
       <c r="H28" s="39">
-        <v>1904.89</v>
+        <v>0</v>
       </c>
       <c r="I28" s="40">
         <v>0</v>
@@ -3020,72 +3020,72 @@
         <v>0</v>
       </c>
       <c r="M28" s="39">
-        <v>1311.12</v>
+        <v>0</v>
       </c>
       <c r="N28" s="39">
+        <v>200</v>
+      </c>
+      <c r="O28" s="39">
+        <v>0</v>
+      </c>
+      <c r="P28" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="39">
+        <v>0</v>
+      </c>
+      <c r="R28" s="39">
+        <v>0</v>
+      </c>
+      <c r="S28" s="39">
+        <v>198.21</v>
+      </c>
+      <c r="T28" s="39">
+        <v>0</v>
+      </c>
+      <c r="U28" s="39">
         <v>500</v>
       </c>
-      <c r="O28" s="39">
-        <v>0</v>
-      </c>
-      <c r="P28" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="39">
-        <v>1126.61</v>
-      </c>
-      <c r="R28" s="39">
-        <v>0</v>
-      </c>
-      <c r="S28" s="39">
-        <v>173.07</v>
-      </c>
-      <c r="T28" s="39">
-        <v>0</v>
-      </c>
-      <c r="U28" s="39">
-        <v>0</v>
-      </c>
       <c r="V28" s="39">
         <v>0</v>
       </c>
       <c r="W28" s="39">
-        <v>6054.11</v>
+        <v>2087.47</v>
       </c>
       <c r="X28" s="39">
-        <v>5483.89</v>
+        <v>11126.53</v>
       </c>
       <c r="Y28" s="40">
-        <v>2741.945</v>
+        <v>5563.265</v>
       </c>
       <c r="Z28" s="40">
-        <v>2741.945</v>
+        <v>5563.265</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="39">
-        <v>25232</v>
+        <v>13214</v>
       </c>
       <c r="D29" s="39">
-        <v>25232</v>
+        <v>13214</v>
       </c>
       <c r="E29" s="39">
-        <v>336.17</v>
+        <v>0</v>
       </c>
       <c r="F29" s="39">
-        <v>2270.88</v>
+        <v>1189.26</v>
       </c>
       <c r="G29" s="39">
         <v>0</v>
       </c>
       <c r="H29" s="39">
-        <v>1430.08</v>
+        <v>0</v>
       </c>
       <c r="I29" s="40">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N29" s="39">
         <v>200</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="39">
-        <v>378.48</v>
+        <v>198.21</v>
       </c>
       <c r="T29" s="39">
         <v>0</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="39">
-        <v>5771.17</v>
+        <v>2087.47</v>
       </c>
       <c r="X29" s="39">
-        <v>19460.83</v>
+        <v>11126.53</v>
       </c>
       <c r="Y29" s="40">
-        <v>9730.415</v>
+        <v>5563.265</v>
       </c>
       <c r="Z29" s="40">
-        <v>9730.415</v>
+        <v>5563.265</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3310,16 +3310,16 @@
         <v>64</v>
       </c>
       <c r="C32" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="D32" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="E32" s="39">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="F32" s="39">
-        <v>1189.26</v>
+        <v>2270.88</v>
       </c>
       <c r="G32" s="39">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="39">
-        <v>198.21</v>
+        <v>378.48</v>
       </c>
       <c r="T32" s="39">
         <v>0</v>
@@ -3370,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="W32" s="39">
-        <v>2087.47</v>
+        <v>3685.53</v>
       </c>
       <c r="X32" s="39">
-        <v>11126.53</v>
+        <v>21546.47</v>
       </c>
       <c r="Y32" s="40">
-        <v>5563.265</v>
+        <v>10773.235</v>
       </c>
       <c r="Z32" s="40">
-        <v>5563.265</v>
+        <v>10773.235</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3390,16 +3390,16 @@
         <v>53</v>
       </c>
       <c r="C33" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="D33" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="E33" s="39">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="F33" s="39">
-        <v>1189.26</v>
+        <v>2270.88</v>
       </c>
       <c r="G33" s="39">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="39">
-        <v>198.21</v>
+        <v>378.48</v>
       </c>
       <c r="T33" s="39">
         <v>0</v>
@@ -3450,16 +3450,16 @@
         <v>0</v>
       </c>
       <c r="W33" s="39">
-        <v>2087.47</v>
+        <v>3685.53</v>
       </c>
       <c r="X33" s="39">
-        <v>11126.53</v>
+        <v>21546.47</v>
       </c>
       <c r="Y33" s="40">
-        <v>5563.265</v>
+        <v>10773.235</v>
       </c>
       <c r="Z33" s="40">
-        <v>5563.265</v>
+        <v>10773.235</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -3624,10 +3624,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C36" s="39">
         <v>25232</v>
@@ -3684,51 +3684,51 @@
         <v>0</v>
       </c>
       <c r="U36" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V36" s="39">
         <v>0</v>
       </c>
       <c r="W36" s="39">
-        <v>3685.53</v>
+        <v>3185.53</v>
       </c>
       <c r="X36" s="39">
-        <v>21546.47</v>
+        <v>22046.47</v>
       </c>
       <c r="Y36" s="40">
-        <v>10773.235</v>
+        <v>11023.235</v>
       </c>
       <c r="Z36" s="40">
-        <v>10773.235</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C37" s="39">
-        <v>25232</v>
+        <v>65319</v>
       </c>
       <c r="D37" s="39">
-        <v>25232</v>
+        <v>65319</v>
       </c>
       <c r="E37" s="39">
-        <v>336.17</v>
+        <v>9815.03</v>
       </c>
       <c r="F37" s="39">
-        <v>2270.88</v>
+        <v>5878.71</v>
       </c>
       <c r="G37" s="39">
         <v>0</v>
       </c>
       <c r="H37" s="39">
-        <v>0</v>
+        <v>1569.01</v>
       </c>
       <c r="I37" s="40">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J37" s="40">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N37" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="O37" s="39">
         <v>0</v>
       </c>
       <c r="P37" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q37" s="39">
         <v>0</v>
@@ -3758,48 +3758,48 @@
         <v>0</v>
       </c>
       <c r="S37" s="39">
-        <v>378.48</v>
+        <v>900</v>
       </c>
       <c r="T37" s="39">
         <v>0</v>
       </c>
       <c r="U37" s="39">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="V37" s="39">
         <v>0</v>
       </c>
       <c r="W37" s="39">
-        <v>3685.53</v>
+        <v>24218.31</v>
       </c>
       <c r="X37" s="39">
-        <v>21546.47</v>
+        <v>41100.69</v>
       </c>
       <c r="Y37" s="40">
-        <v>10773.235</v>
+        <v>20550.345</v>
       </c>
       <c r="Z37" s="40">
-        <v>10773.235</v>
+        <v>20550.345</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C38" s="39">
-        <v>25232</v>
+        <v>30531</v>
       </c>
       <c r="D38" s="39">
-        <v>25232</v>
+        <v>30531</v>
       </c>
       <c r="E38" s="39">
-        <v>336.17</v>
+        <v>1286.02</v>
       </c>
       <c r="F38" s="39">
-        <v>2270.88</v>
+        <v>2747.79</v>
       </c>
       <c r="G38" s="39">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N38" s="39">
         <v>200</v>
@@ -3838,57 +3838,57 @@
         <v>0</v>
       </c>
       <c r="S38" s="39">
-        <v>378.48</v>
+        <v>457.96</v>
       </c>
       <c r="T38" s="39">
         <v>0</v>
       </c>
       <c r="U38" s="39">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V38" s="39">
         <v>0</v>
       </c>
       <c r="W38" s="39">
-        <v>3185.53</v>
+        <v>6847.33</v>
       </c>
       <c r="X38" s="39">
-        <v>22046.47</v>
+        <v>23683.67</v>
       </c>
       <c r="Y38" s="40">
-        <v>11023.235</v>
+        <v>11841.835</v>
       </c>
       <c r="Z38" s="40">
-        <v>11023.235</v>
+        <v>11841.835</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C39" s="39">
-        <v>65319</v>
+        <v>40637</v>
       </c>
       <c r="D39" s="39">
-        <v>65319</v>
+        <v>40637</v>
       </c>
       <c r="E39" s="39">
-        <v>9815.03</v>
+        <v>3249.08</v>
       </c>
       <c r="F39" s="39">
-        <v>5878.71</v>
+        <v>3657.33</v>
       </c>
       <c r="G39" s="39">
         <v>0</v>
       </c>
       <c r="H39" s="39">
-        <v>1569.01</v>
+        <v>5578.99</v>
       </c>
       <c r="I39" s="40">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J39" s="40">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>655.56</v>
       </c>
       <c r="N39" s="39">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O39" s="39">
         <v>0</v>
       </c>
       <c r="P39" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="39">
         <v>0</v>
@@ -3918,54 +3918,54 @@
         <v>0</v>
       </c>
       <c r="S39" s="39">
-        <v>900</v>
+        <v>609.55</v>
       </c>
       <c r="T39" s="39">
         <v>0</v>
       </c>
       <c r="U39" s="39">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="V39" s="39">
         <v>0</v>
       </c>
       <c r="W39" s="39">
-        <v>24218.31</v>
+        <v>18450.51</v>
       </c>
       <c r="X39" s="39">
-        <v>41100.69</v>
+        <v>22186.49</v>
       </c>
       <c r="Y39" s="40">
-        <v>20550.345</v>
+        <v>11093.245</v>
       </c>
       <c r="Z39" s="40">
-        <v>20550.345</v>
+        <v>11093.245</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C40" s="39">
-        <v>30531</v>
+        <v>51155</v>
       </c>
       <c r="D40" s="39">
-        <v>30531</v>
+        <v>51155</v>
       </c>
       <c r="E40" s="39">
-        <v>1286.02</v>
+        <v>6002.55</v>
       </c>
       <c r="F40" s="39">
-        <v>2747.79</v>
+        <v>4603.95</v>
       </c>
       <c r="G40" s="39">
         <v>0</v>
       </c>
       <c r="H40" s="39">
-        <v>0</v>
+        <v>3690.08</v>
       </c>
       <c r="I40" s="40">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>655.56</v>
       </c>
       <c r="N40" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="O40" s="39">
         <v>0</v>
       </c>
       <c r="P40" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q40" s="39">
         <v>0</v>
@@ -3998,54 +3998,54 @@
         <v>0</v>
       </c>
       <c r="S40" s="39">
-        <v>457.96</v>
+        <v>767.32</v>
       </c>
       <c r="T40" s="39">
         <v>0</v>
       </c>
       <c r="U40" s="39">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="V40" s="39">
         <v>0</v>
       </c>
       <c r="W40" s="39">
-        <v>6847.33</v>
+        <v>18219.46</v>
       </c>
       <c r="X40" s="39">
-        <v>23683.67</v>
+        <v>32935.54</v>
       </c>
       <c r="Y40" s="40">
-        <v>11841.835</v>
+        <v>16467.77</v>
       </c>
       <c r="Z40" s="40">
-        <v>11841.835</v>
+        <v>16467.77</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C41" s="39">
-        <v>40637</v>
+        <v>73811</v>
       </c>
       <c r="D41" s="39">
-        <v>40637</v>
+        <v>73811</v>
       </c>
       <c r="E41" s="39">
-        <v>3249.08</v>
+        <v>12354.29</v>
       </c>
       <c r="F41" s="39">
-        <v>3657.33</v>
+        <v>6642.99</v>
       </c>
       <c r="G41" s="39">
         <v>0</v>
       </c>
       <c r="H41" s="39">
-        <v>5578.99</v>
+        <v>0</v>
       </c>
       <c r="I41" s="40">
         <v>0</v>
@@ -4060,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N41" s="39">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="O41" s="39">
         <v>0</v>
       </c>
       <c r="P41" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q41" s="39">
         <v>0</v>
@@ -4078,57 +4078,57 @@
         <v>0</v>
       </c>
       <c r="S41" s="39">
-        <v>609.55</v>
+        <v>900</v>
       </c>
       <c r="T41" s="39">
         <v>0</v>
       </c>
       <c r="U41" s="39">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="V41" s="39">
         <v>0</v>
       </c>
       <c r="W41" s="39">
-        <v>18450.51</v>
+        <v>21097.28</v>
       </c>
       <c r="X41" s="39">
-        <v>22186.49</v>
+        <v>52713.72</v>
       </c>
       <c r="Y41" s="40">
-        <v>11093.245</v>
+        <v>26356.86</v>
       </c>
       <c r="Z41" s="40">
-        <v>11093.245</v>
+        <v>26356.86</v>
       </c>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C42" s="39">
-        <v>51155</v>
+        <v>46008</v>
       </c>
       <c r="D42" s="39">
-        <v>51155</v>
+        <v>46008</v>
       </c>
       <c r="E42" s="39">
-        <v>6002.55</v>
+        <v>4617.15</v>
       </c>
       <c r="F42" s="39">
-        <v>4603.95</v>
+        <v>4140.72</v>
       </c>
       <c r="G42" s="39">
         <v>0</v>
       </c>
       <c r="H42" s="39">
-        <v>3690.08</v>
+        <v>5687.67</v>
       </c>
       <c r="I42" s="40">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J42" s="40">
         <v>0</v>
@@ -4143,69 +4143,69 @@
         <v>655.56</v>
       </c>
       <c r="N42" s="39">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O42" s="39">
         <v>0</v>
       </c>
       <c r="P42" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="39">
-        <v>0</v>
+        <v>1350.9</v>
       </c>
       <c r="R42" s="39">
         <v>0</v>
       </c>
       <c r="S42" s="39">
-        <v>767.32</v>
+        <v>690.12</v>
       </c>
       <c r="T42" s="39">
         <v>0</v>
       </c>
       <c r="U42" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V42" s="39">
         <v>0</v>
       </c>
       <c r="W42" s="39">
-        <v>18219.46</v>
+        <v>17542.12</v>
       </c>
       <c r="X42" s="39">
-        <v>32935.54</v>
+        <v>28465.88</v>
       </c>
       <c r="Y42" s="40">
-        <v>16467.77</v>
+        <v>14232.94</v>
       </c>
       <c r="Z42" s="40">
-        <v>16467.77</v>
+        <v>14232.94</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C43" s="39">
-        <v>73811</v>
+        <v>20754</v>
       </c>
       <c r="D43" s="39">
-        <v>73811</v>
+        <v>20754</v>
       </c>
       <c r="E43" s="39">
-        <v>12354.29</v>
+        <v>0</v>
       </c>
       <c r="F43" s="39">
-        <v>6642.99</v>
+        <v>1867.86</v>
       </c>
       <c r="G43" s="39">
         <v>0</v>
       </c>
       <c r="H43" s="39">
-        <v>0</v>
+        <v>2025.7</v>
       </c>
       <c r="I43" s="40">
         <v>0</v>
@@ -4220,25 +4220,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N43" s="39">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="O43" s="39">
         <v>0</v>
       </c>
       <c r="P43" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="39">
-        <v>0</v>
+        <v>363.01</v>
       </c>
       <c r="R43" s="39">
         <v>0</v>
       </c>
       <c r="S43" s="39">
-        <v>900</v>
+        <v>311.31</v>
       </c>
       <c r="T43" s="39">
         <v>0</v>
@@ -4250,45 +4250,45 @@
         <v>0</v>
       </c>
       <c r="W43" s="39">
-        <v>21097.28</v>
+        <v>5423.44</v>
       </c>
       <c r="X43" s="39">
-        <v>52713.72</v>
+        <v>15330.56</v>
       </c>
       <c r="Y43" s="40">
-        <v>26356.86</v>
+        <v>7665.28</v>
       </c>
       <c r="Z43" s="40">
-        <v>26356.86</v>
+        <v>7665.28</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C44" s="39">
-        <v>46008</v>
+        <v>17975</v>
       </c>
       <c r="D44" s="39">
-        <v>46008</v>
+        <v>17975</v>
       </c>
       <c r="E44" s="39">
-        <v>4617.15</v>
+        <v>0</v>
       </c>
       <c r="F44" s="39">
-        <v>4140.72</v>
+        <v>1617.75</v>
       </c>
       <c r="G44" s="39">
         <v>0</v>
       </c>
       <c r="H44" s="39">
-        <v>5687.67</v>
+        <v>1662.1</v>
       </c>
       <c r="I44" s="40">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="40">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N44" s="39">
         <v>200</v>
@@ -4309,63 +4309,63 @@
         <v>0</v>
       </c>
       <c r="P44" s="39">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q44" s="39">
-        <v>1350.9</v>
+        <v>0</v>
       </c>
       <c r="R44" s="39">
         <v>0</v>
       </c>
       <c r="S44" s="39">
-        <v>690.12</v>
+        <v>269.62</v>
       </c>
       <c r="T44" s="39">
         <v>0</v>
       </c>
       <c r="U44" s="39">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="V44" s="39">
         <v>0</v>
       </c>
       <c r="W44" s="39">
-        <v>17542.12</v>
+        <v>6449.47</v>
       </c>
       <c r="X44" s="39">
-        <v>28465.88</v>
+        <v>11525.53</v>
       </c>
       <c r="Y44" s="40">
-        <v>14232.94</v>
+        <v>5762.765</v>
       </c>
       <c r="Z44" s="40">
-        <v>14232.94</v>
+        <v>5762.765</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C45" s="39">
-        <v>20754</v>
+        <v>13214</v>
       </c>
       <c r="D45" s="39">
-        <v>20754</v>
+        <v>13214</v>
       </c>
       <c r="E45" s="39">
         <v>0</v>
       </c>
       <c r="F45" s="39">
-        <v>1867.86</v>
+        <v>1189.26</v>
       </c>
       <c r="G45" s="39">
         <v>0</v>
       </c>
       <c r="H45" s="39">
-        <v>2025.7</v>
+        <v>2281.3</v>
       </c>
       <c r="I45" s="40">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>655.56</v>
       </c>
       <c r="N45" s="39">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O45" s="39">
         <v>0</v>
@@ -4392,54 +4392,54 @@
         <v>0</v>
       </c>
       <c r="Q45" s="39">
-        <v>363.01</v>
+        <v>0</v>
       </c>
       <c r="R45" s="39">
         <v>0</v>
       </c>
       <c r="S45" s="39">
-        <v>311.31</v>
+        <v>198.21</v>
       </c>
       <c r="T45" s="39">
         <v>0</v>
       </c>
       <c r="U45" s="39">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="V45" s="39">
         <v>0</v>
       </c>
       <c r="W45" s="39">
-        <v>5423.44</v>
+        <v>8024.33</v>
       </c>
       <c r="X45" s="39">
-        <v>15330.56</v>
+        <v>5189.67</v>
       </c>
       <c r="Y45" s="40">
-        <v>7665.28</v>
+        <v>2594.835</v>
       </c>
       <c r="Z45" s="40">
-        <v>7665.28</v>
+        <v>2594.835</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C46" s="39">
-        <v>17975</v>
+        <v>30531</v>
       </c>
       <c r="D46" s="39">
-        <v>17975</v>
+        <v>30531</v>
       </c>
       <c r="E46" s="39">
-        <v>0</v>
+        <v>1286.02</v>
       </c>
       <c r="F46" s="39">
-        <v>1617.75</v>
+        <v>2747.79</v>
       </c>
       <c r="G46" s="39">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N46" s="39">
         <v>200</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="39">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="39">
         <v>0</v>
@@ -4478,54 +4478,54 @@
         <v>0</v>
       </c>
       <c r="S46" s="39">
-        <v>269.62</v>
+        <v>457.96</v>
       </c>
       <c r="T46" s="39">
         <v>0</v>
       </c>
       <c r="U46" s="39">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="V46" s="39">
         <v>0</v>
       </c>
       <c r="W46" s="39">
-        <v>6449.47</v>
+        <v>7509.43</v>
       </c>
       <c r="X46" s="39">
-        <v>11525.53</v>
+        <v>23021.57</v>
       </c>
       <c r="Y46" s="40">
-        <v>5762.765</v>
+        <v>11510.785</v>
       </c>
       <c r="Z46" s="40">
-        <v>5762.765</v>
+        <v>11510.785</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C47" s="39">
-        <v>13214</v>
+        <v>17688</v>
       </c>
       <c r="D47" s="39">
-        <v>13214</v>
+        <v>17688</v>
       </c>
       <c r="E47" s="39">
         <v>0</v>
       </c>
       <c r="F47" s="39">
-        <v>1189.26</v>
+        <v>1591.92</v>
       </c>
       <c r="G47" s="39">
         <v>0</v>
       </c>
       <c r="H47" s="39">
-        <v>2281.3</v>
+        <v>0</v>
       </c>
       <c r="I47" s="40">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="M47" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N47" s="39">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O47" s="39">
         <v>0</v>
@@ -4552,60 +4552,60 @@
         <v>0</v>
       </c>
       <c r="Q47" s="39">
-        <v>0</v>
+        <v>9630.76</v>
       </c>
       <c r="R47" s="39">
         <v>0</v>
       </c>
       <c r="S47" s="39">
-        <v>198.21</v>
+        <v>265.32</v>
       </c>
       <c r="T47" s="39">
         <v>0</v>
       </c>
       <c r="U47" s="39">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="V47" s="39">
         <v>0</v>
       </c>
       <c r="W47" s="39">
-        <v>8024.33</v>
+        <v>12688</v>
       </c>
       <c r="X47" s="39">
-        <v>5189.67</v>
+        <v>5000</v>
       </c>
       <c r="Y47" s="40">
-        <v>2594.835</v>
+        <v>2500</v>
       </c>
       <c r="Z47" s="40">
-        <v>2594.835</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C48" s="39">
-        <v>30531</v>
+        <v>25232</v>
       </c>
       <c r="D48" s="39">
-        <v>30531</v>
+        <v>25232</v>
       </c>
       <c r="E48" s="39">
-        <v>1286.02</v>
+        <v>336.17</v>
       </c>
       <c r="F48" s="39">
-        <v>2747.79</v>
+        <v>2270.88</v>
       </c>
       <c r="G48" s="39">
         <v>0</v>
       </c>
       <c r="H48" s="39">
-        <v>1662.1</v>
+        <v>1425.28</v>
       </c>
       <c r="I48" s="40">
         <v>0</v>
@@ -4632,54 +4632,54 @@
         <v>0</v>
       </c>
       <c r="Q48" s="39">
-        <v>0</v>
+        <v>352.36</v>
       </c>
       <c r="R48" s="39">
         <v>0</v>
       </c>
       <c r="S48" s="39">
-        <v>457.96</v>
+        <v>378.48</v>
       </c>
       <c r="T48" s="39">
         <v>0</v>
       </c>
       <c r="U48" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V48" s="39">
         <v>0</v>
       </c>
       <c r="W48" s="39">
-        <v>7509.43</v>
+        <v>5618.73</v>
       </c>
       <c r="X48" s="39">
-        <v>23021.57</v>
+        <v>19613.27</v>
       </c>
       <c r="Y48" s="40">
-        <v>11510.785</v>
+        <v>9806.635</v>
       </c>
       <c r="Z48" s="40">
-        <v>11510.785</v>
+        <v>9806.635</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C49" s="39">
-        <v>17688</v>
+        <v>13214</v>
       </c>
       <c r="D49" s="39">
-        <v>17688</v>
+        <v>13214</v>
       </c>
       <c r="E49" s="39">
         <v>0</v>
       </c>
       <c r="F49" s="39">
-        <v>1591.92</v>
+        <v>1189.26</v>
       </c>
       <c r="G49" s="39">
         <v>0</v>
@@ -4703,69 +4703,69 @@
         <v>0</v>
       </c>
       <c r="N49" s="39">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O49" s="39">
         <v>0</v>
       </c>
       <c r="P49" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="39">
-        <v>9630.76</v>
+        <v>0</v>
       </c>
       <c r="R49" s="39">
         <v>0</v>
       </c>
       <c r="S49" s="39">
-        <v>265.32</v>
+        <v>198.21</v>
       </c>
       <c r="T49" s="39">
         <v>0</v>
       </c>
       <c r="U49" s="39">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="V49" s="39">
         <v>0</v>
       </c>
       <c r="W49" s="39">
-        <v>12688</v>
+        <v>2287.47</v>
       </c>
       <c r="X49" s="39">
-        <v>5000</v>
+        <v>10926.53</v>
       </c>
       <c r="Y49" s="40">
-        <v>2500</v>
+        <v>5463.265</v>
       </c>
       <c r="Z49" s="40">
-        <v>2500</v>
+        <v>5463.265</v>
       </c>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="39">
-        <v>25232</v>
+        <v>0</v>
       </c>
       <c r="D50" s="39">
-        <v>25232</v>
+        <v>0</v>
       </c>
       <c r="E50" s="39">
-        <v>336.17</v>
+        <v>0</v>
       </c>
       <c r="F50" s="39">
-        <v>2270.88</v>
+        <v>0</v>
       </c>
       <c r="G50" s="39">
         <v>0</v>
       </c>
       <c r="H50" s="39">
-        <v>1425.28</v>
+        <v>0</v>
       </c>
       <c r="I50" s="40">
         <v>0</v>
@@ -4780,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="M50" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N50" s="39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O50" s="39">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="39">
-        <v>352.36</v>
+        <v>0</v>
       </c>
       <c r="R50" s="39">
         <v>0</v>
       </c>
       <c r="S50" s="39">
-        <v>378.48</v>
+        <v>0</v>
       </c>
       <c r="T50" s="39">
         <v>0</v>
@@ -4810,36 +4810,36 @@
         <v>0</v>
       </c>
       <c r="W50" s="39">
-        <v>5618.73</v>
+        <v>0</v>
       </c>
       <c r="X50" s="39">
-        <v>19613.27</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="40">
-        <v>9806.635</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="40">
-        <v>9806.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C51" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="D51" s="39">
-        <v>13214</v>
+        <v>25232</v>
       </c>
       <c r="E51" s="39">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="F51" s="39">
-        <v>1189.26</v>
+        <v>2270.88</v>
       </c>
       <c r="G51" s="39">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="39">
         <v>0</v>
@@ -4878,48 +4878,48 @@
         <v>0</v>
       </c>
       <c r="S51" s="39">
-        <v>198.21</v>
+        <v>378.48</v>
       </c>
       <c r="T51" s="39">
         <v>0</v>
       </c>
       <c r="U51" s="39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V51" s="39">
         <v>0</v>
       </c>
       <c r="W51" s="39">
-        <v>2287.47</v>
+        <v>3185.53</v>
       </c>
       <c r="X51" s="39">
-        <v>10926.53</v>
+        <v>22046.47</v>
       </c>
       <c r="Y51" s="40">
-        <v>5463.265</v>
+        <v>11023.235</v>
       </c>
       <c r="Z51" s="40">
-        <v>5463.265</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C52" s="39">
-        <v>0</v>
+        <v>33584</v>
       </c>
       <c r="D52" s="39">
-        <v>0</v>
+        <v>33584</v>
       </c>
       <c r="E52" s="39">
-        <v>0</v>
+        <v>1833.27</v>
       </c>
       <c r="F52" s="39">
-        <v>0</v>
+        <v>3022.56</v>
       </c>
       <c r="G52" s="39">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O52" s="39">
         <v>0</v>
       </c>
       <c r="P52" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q52" s="39">
         <v>0</v>
@@ -4958,54 +4958,54 @@
         <v>0</v>
       </c>
       <c r="S52" s="39">
-        <v>0</v>
+        <v>503.76</v>
       </c>
       <c r="T52" s="39">
         <v>0</v>
       </c>
       <c r="U52" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V52" s="39">
         <v>0</v>
       </c>
       <c r="W52" s="39">
-        <v>0</v>
+        <v>7859.59</v>
       </c>
       <c r="X52" s="39">
-        <v>0</v>
+        <v>25724.41</v>
       </c>
       <c r="Y52" s="40">
-        <v>0</v>
+        <v>12862.205</v>
       </c>
       <c r="Z52" s="40">
-        <v>0</v>
+        <v>12862.205</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C53" s="39">
-        <v>25232</v>
+        <v>13152</v>
       </c>
       <c r="D53" s="39">
-        <v>25232</v>
+        <v>13152</v>
       </c>
       <c r="E53" s="39">
-        <v>336.17</v>
+        <v>0</v>
       </c>
       <c r="F53" s="39">
-        <v>2270.88</v>
+        <v>1183.68</v>
       </c>
       <c r="G53" s="39">
         <v>0</v>
       </c>
       <c r="H53" s="39">
-        <v>0</v>
+        <v>2450.65</v>
       </c>
       <c r="I53" s="40">
         <v>0</v>
@@ -5020,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="M53" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N53" s="39">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O53" s="39">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="39">
-        <v>0</v>
+        <v>1600.04</v>
       </c>
       <c r="R53" s="39">
         <v>0</v>
       </c>
       <c r="S53" s="39">
-        <v>378.48</v>
+        <v>197.28</v>
       </c>
       <c r="T53" s="39">
         <v>0</v>
@@ -5050,36 +5050,36 @@
         <v>0</v>
       </c>
       <c r="W53" s="39">
-        <v>3185.53</v>
+        <v>6387.21</v>
       </c>
       <c r="X53" s="39">
-        <v>22046.47</v>
+        <v>6764.79</v>
       </c>
       <c r="Y53" s="40">
-        <v>11023.235</v>
+        <v>3382.395</v>
       </c>
       <c r="Z53" s="40">
-        <v>11023.235</v>
+        <v>3382.395</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="38" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C54" s="39">
-        <v>33584</v>
+        <v>13214</v>
       </c>
       <c r="D54" s="39">
-        <v>33584</v>
+        <v>13214</v>
       </c>
       <c r="E54" s="39">
-        <v>1833.27</v>
+        <v>0</v>
       </c>
       <c r="F54" s="39">
-        <v>3022.56</v>
+        <v>1189.26</v>
       </c>
       <c r="G54" s="39">
         <v>0</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="N54" s="39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O54" s="39">
         <v>0</v>
       </c>
       <c r="P54" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="39">
         <v>0</v>
@@ -5118,54 +5118,54 @@
         <v>0</v>
       </c>
       <c r="S54" s="39">
-        <v>503.76</v>
+        <v>198.21</v>
       </c>
       <c r="T54" s="39">
         <v>0</v>
       </c>
       <c r="U54" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V54" s="39">
         <v>0</v>
       </c>
       <c r="W54" s="39">
-        <v>7859.59</v>
+        <v>1587.47</v>
       </c>
       <c r="X54" s="39">
-        <v>25724.41</v>
+        <v>11626.53</v>
       </c>
       <c r="Y54" s="40">
-        <v>12862.205</v>
+        <v>5813.265</v>
       </c>
       <c r="Z54" s="40">
-        <v>12862.205</v>
+        <v>5813.265</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C55" s="39">
-        <v>13152</v>
+        <v>30531</v>
       </c>
       <c r="D55" s="39">
-        <v>13152</v>
+        <v>30531</v>
       </c>
       <c r="E55" s="39">
-        <v>0</v>
+        <v>1286.02</v>
       </c>
       <c r="F55" s="39">
-        <v>1183.68</v>
+        <v>2747.79</v>
       </c>
       <c r="G55" s="39">
         <v>0</v>
       </c>
       <c r="H55" s="39">
-        <v>2450.65</v>
+        <v>0</v>
       </c>
       <c r="I55" s="40">
         <v>0</v>
@@ -5180,66 +5180,66 @@
         <v>0</v>
       </c>
       <c r="M55" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N55" s="39">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O55" s="39">
         <v>0</v>
       </c>
       <c r="P55" s="39">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Q55" s="39">
-        <v>1600.04</v>
+        <v>0</v>
       </c>
       <c r="R55" s="39">
         <v>0</v>
       </c>
       <c r="S55" s="39">
-        <v>197.28</v>
+        <v>457.96</v>
       </c>
       <c r="T55" s="39">
         <v>0</v>
       </c>
       <c r="U55" s="39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V55" s="39">
         <v>0</v>
       </c>
       <c r="W55" s="39">
-        <v>6387.21</v>
+        <v>6791.77</v>
       </c>
       <c r="X55" s="39">
-        <v>6764.79</v>
+        <v>23739.23</v>
       </c>
       <c r="Y55" s="40">
-        <v>3382.395</v>
+        <v>11869.615</v>
       </c>
       <c r="Z55" s="40">
-        <v>3382.395</v>
+        <v>11869.615</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C56" s="39">
-        <v>13214</v>
+        <v>40637</v>
       </c>
       <c r="D56" s="39">
-        <v>13214</v>
+        <v>40637</v>
       </c>
       <c r="E56" s="39">
-        <v>0</v>
+        <v>3249</v>
       </c>
       <c r="F56" s="39">
-        <v>1189.26</v>
+        <v>3657.33</v>
       </c>
       <c r="G56" s="39">
         <v>0</v>
@@ -5263,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="N56" s="39">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="O56" s="39">
         <v>0</v>
       </c>
       <c r="P56" s="39">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q56" s="39">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="39">
-        <v>198.21</v>
+        <v>609.55</v>
       </c>
       <c r="T56" s="39">
         <v>0</v>
@@ -5290,42 +5290,42 @@
         <v>0</v>
       </c>
       <c r="W56" s="39">
-        <v>1587.47</v>
+        <v>15515.88</v>
       </c>
       <c r="X56" s="39">
-        <v>11626.53</v>
+        <v>25121.12</v>
       </c>
       <c r="Y56" s="40">
-        <v>5813.265</v>
+        <v>12560.56</v>
       </c>
       <c r="Z56" s="40">
-        <v>5813.265</v>
+        <v>12560.56</v>
       </c>
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C57" s="39">
-        <v>30531</v>
+        <v>12952</v>
       </c>
       <c r="D57" s="39">
-        <v>30531</v>
+        <v>12952</v>
       </c>
       <c r="E57" s="39">
-        <v>1286.02</v>
+        <v>0</v>
       </c>
       <c r="F57" s="39">
-        <v>2747.79</v>
+        <v>1165.68</v>
       </c>
       <c r="G57" s="39">
         <v>0</v>
       </c>
       <c r="H57" s="39">
-        <v>0</v>
+        <v>1704.94</v>
       </c>
       <c r="I57" s="40">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N57" s="39">
         <v>200</v>
@@ -5358,54 +5358,54 @@
         <v>0</v>
       </c>
       <c r="S57" s="39">
-        <v>457.96</v>
+        <v>194.28</v>
       </c>
       <c r="T57" s="39">
         <v>0</v>
       </c>
       <c r="U57" s="39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="39">
         <v>0</v>
       </c>
       <c r="W57" s="39">
-        <v>6791.77</v>
+        <v>5920.46</v>
       </c>
       <c r="X57" s="39">
-        <v>23739.23</v>
+        <v>7031.54</v>
       </c>
       <c r="Y57" s="40">
-        <v>11869.615</v>
+        <v>3515.77</v>
       </c>
       <c r="Z57" s="40">
-        <v>11869.615</v>
+        <v>3515.77</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C58" s="39">
-        <v>40637</v>
+        <v>25232</v>
       </c>
       <c r="D58" s="39">
-        <v>40637</v>
+        <v>25232</v>
       </c>
       <c r="E58" s="39">
-        <v>3249</v>
+        <v>336.17</v>
       </c>
       <c r="F58" s="39">
-        <v>3657.33</v>
+        <v>2270.88</v>
       </c>
       <c r="G58" s="39">
         <v>0</v>
       </c>
       <c r="H58" s="39">
-        <v>0</v>
+        <v>1425.29</v>
       </c>
       <c r="I58" s="40">
         <v>0</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="39">
-        <v>7000</v>
+        <v>200</v>
       </c>
       <c r="O58" s="39">
         <v>0</v>
       </c>
       <c r="P58" s="39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="39">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="39">
-        <v>609.55</v>
+        <v>378.48</v>
       </c>
       <c r="T58" s="39">
         <v>0</v>
@@ -5450,42 +5450,42 @@
         <v>0</v>
       </c>
       <c r="W58" s="39">
-        <v>15515.88</v>
+        <v>4610.82</v>
       </c>
       <c r="X58" s="39">
-        <v>25121.12</v>
+        <v>20621.18</v>
       </c>
       <c r="Y58" s="40">
-        <v>12560.56</v>
+        <v>10310.59</v>
       </c>
       <c r="Z58" s="40">
-        <v>12560.56</v>
+        <v>10310.59</v>
       </c>
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C59" s="39">
-        <v>12952</v>
+        <v>25232</v>
       </c>
       <c r="D59" s="39">
-        <v>12952</v>
+        <v>25232</v>
       </c>
       <c r="E59" s="39">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="F59" s="39">
-        <v>1165.68</v>
+        <v>2270.88</v>
       </c>
       <c r="G59" s="39">
         <v>0</v>
       </c>
       <c r="H59" s="39">
-        <v>1704.94</v>
+        <v>0</v>
       </c>
       <c r="I59" s="40">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N59" s="39">
         <v>200</v>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="39">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="39">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="39">
-        <v>194.28</v>
+        <v>378.48</v>
       </c>
       <c r="T59" s="39">
         <v>0</v>
@@ -5530,42 +5530,42 @@
         <v>0</v>
       </c>
       <c r="W59" s="39">
-        <v>5920.46</v>
+        <v>3185.53</v>
       </c>
       <c r="X59" s="39">
-        <v>7031.54</v>
+        <v>22046.47</v>
       </c>
       <c r="Y59" s="40">
-        <v>3515.77</v>
+        <v>11023.235</v>
       </c>
       <c r="Z59" s="40">
-        <v>3515.77</v>
+        <v>11023.235</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C60" s="39">
-        <v>25232</v>
+        <v>65319</v>
       </c>
       <c r="D60" s="39">
-        <v>25232</v>
+        <v>65319</v>
       </c>
       <c r="E60" s="39">
-        <v>336.17</v>
+        <v>9815.03</v>
       </c>
       <c r="F60" s="39">
-        <v>2270.88</v>
+        <v>5878.71</v>
       </c>
       <c r="G60" s="39">
         <v>0</v>
       </c>
       <c r="H60" s="39">
-        <v>1425.29</v>
+        <v>5124.31</v>
       </c>
       <c r="I60" s="40">
         <v>0</v>
@@ -5580,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N60" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="O60" s="39">
         <v>0</v>
@@ -5598,54 +5598,54 @@
         <v>0</v>
       </c>
       <c r="S60" s="39">
-        <v>378.48</v>
+        <v>900</v>
       </c>
       <c r="T60" s="39">
         <v>0</v>
       </c>
       <c r="U60" s="39">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="V60" s="39">
         <v>0</v>
       </c>
       <c r="W60" s="39">
-        <v>4610.82</v>
+        <v>25273.61</v>
       </c>
       <c r="X60" s="39">
-        <v>20621.18</v>
+        <v>40045.39</v>
       </c>
       <c r="Y60" s="40">
-        <v>10310.59</v>
+        <v>20022.695</v>
       </c>
       <c r="Z60" s="40">
-        <v>10310.59</v>
+        <v>20022.695</v>
       </c>
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C61" s="39">
-        <v>25232</v>
+        <v>33279</v>
       </c>
       <c r="D61" s="39">
-        <v>25232</v>
+        <v>33279</v>
       </c>
       <c r="E61" s="39">
-        <v>336.17</v>
+        <v>1779</v>
       </c>
       <c r="F61" s="39">
-        <v>2270.88</v>
+        <v>2995.11</v>
       </c>
       <c r="G61" s="39">
         <v>0</v>
       </c>
       <c r="H61" s="39">
-        <v>0</v>
+        <v>6383.63</v>
       </c>
       <c r="I61" s="40">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="39">
-        <v>0</v>
+        <v>655.56</v>
       </c>
       <c r="N61" s="39">
         <v>200</v>
@@ -5678,54 +5678,54 @@
         <v>0</v>
       </c>
       <c r="S61" s="39">
-        <v>378.48</v>
+        <v>499.18</v>
       </c>
       <c r="T61" s="39">
         <v>0</v>
       </c>
       <c r="U61" s="39">
-        <v>0</v>
+        <v>11010</v>
       </c>
       <c r="V61" s="39">
         <v>0</v>
       </c>
       <c r="W61" s="39">
-        <v>3185.53</v>
+        <v>23522.48</v>
       </c>
       <c r="X61" s="39">
-        <v>22046.47</v>
+        <v>9756.52</v>
       </c>
       <c r="Y61" s="40">
-        <v>11023.235</v>
+        <v>4878.26</v>
       </c>
       <c r="Z61" s="40">
-        <v>11023.235</v>
+        <v>4878.26</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C62" s="39">
-        <v>65319</v>
+        <v>13214</v>
       </c>
       <c r="D62" s="39">
-        <v>65319</v>
+        <v>13214</v>
       </c>
       <c r="E62" s="39">
-        <v>9815.03</v>
+        <v>0</v>
       </c>
       <c r="F62" s="39">
-        <v>5878.71</v>
+        <v>1189.26</v>
       </c>
       <c r="G62" s="39">
         <v>0</v>
       </c>
       <c r="H62" s="39">
-        <v>5124.31</v>
+        <v>0</v>
       </c>
       <c r="I62" s="40">
         <v>0</v>
@@ -5740,16 +5740,16 @@
         <v>0</v>
       </c>
       <c r="M62" s="39">
-        <v>655.56</v>
+        <v>0</v>
       </c>
       <c r="N62" s="39">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O62" s="39">
         <v>0</v>
       </c>
       <c r="P62" s="39">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="39">
         <v>0</v>
@@ -5758,194 +5758,96 @@
         <v>0</v>
       </c>
       <c r="S62" s="39">
-        <v>900</v>
+        <v>198.21</v>
       </c>
       <c r="T62" s="39">
         <v>0</v>
       </c>
       <c r="U62" s="39">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="V62" s="39">
         <v>0</v>
       </c>
       <c r="W62" s="39">
-        <v>25273.61</v>
+        <v>2287.47</v>
       </c>
       <c r="X62" s="39">
-        <v>40045.39</v>
+        <v>10926.53</v>
       </c>
       <c r="Y62" s="40">
-        <v>20022.695</v>
+        <v>5463.265</v>
       </c>
       <c r="Z62" s="40">
-        <v>20022.695</v>
+        <v>5463.265</v>
       </c>
     </row>
     <row r="63" spans="1:35">
-      <c r="A63" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="39">
-        <v>33279</v>
-      </c>
-      <c r="D63" s="39">
-        <v>33279</v>
-      </c>
-      <c r="E63" s="39">
-        <v>1779</v>
-      </c>
-      <c r="F63" s="39">
-        <v>2995.11</v>
-      </c>
-      <c r="G63" s="39">
-        <v>0</v>
-      </c>
-      <c r="H63" s="39">
-        <v>6383.63</v>
-      </c>
-      <c r="I63" s="40">
-        <v>0</v>
-      </c>
-      <c r="J63" s="40">
-        <v>0</v>
-      </c>
-      <c r="K63" s="40">
-        <v>0</v>
-      </c>
-      <c r="L63" s="40">
-        <v>0</v>
-      </c>
-      <c r="M63" s="39">
-        <v>655.56</v>
-      </c>
-      <c r="N63" s="39">
-        <v>200</v>
-      </c>
-      <c r="O63" s="39">
-        <v>0</v>
-      </c>
-      <c r="P63" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="39">
-        <v>0</v>
-      </c>
-      <c r="R63" s="39">
-        <v>0</v>
-      </c>
-      <c r="S63" s="39">
-        <v>499.18</v>
-      </c>
-      <c r="T63" s="39">
-        <v>0</v>
-      </c>
-      <c r="U63" s="39">
-        <v>11010</v>
-      </c>
-      <c r="V63" s="39">
-        <v>0</v>
-      </c>
-      <c r="W63" s="39">
-        <v>23522.48</v>
-      </c>
-      <c r="X63" s="39">
-        <v>9756.52</v>
-      </c>
-      <c r="Y63" s="40">
-        <v>4878.26</v>
-      </c>
-      <c r="Z63" s="40">
-        <v>4878.26</v>
+      <c r="A63" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:35">
-      <c r="A64" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="39">
-        <v>13214</v>
-      </c>
-      <c r="D64" s="39">
-        <v>13214</v>
-      </c>
-      <c r="E64" s="39">
-        <v>0</v>
-      </c>
-      <c r="F64" s="39">
-        <v>1189.26</v>
-      </c>
-      <c r="G64" s="39">
-        <v>0</v>
-      </c>
-      <c r="H64" s="39">
-        <v>0</v>
-      </c>
-      <c r="I64" s="40">
-        <v>0</v>
-      </c>
-      <c r="J64" s="40">
-        <v>0</v>
-      </c>
-      <c r="K64" s="40">
-        <v>0</v>
-      </c>
-      <c r="L64" s="40">
-        <v>0</v>
-      </c>
-      <c r="M64" s="39">
-        <v>0</v>
-      </c>
-      <c r="N64" s="39">
-        <v>200</v>
-      </c>
-      <c r="O64" s="39">
-        <v>0</v>
-      </c>
-      <c r="P64" s="39">
-        <v>500</v>
-      </c>
-      <c r="Q64" s="39">
-        <v>0</v>
-      </c>
-      <c r="R64" s="39">
-        <v>0</v>
-      </c>
-      <c r="S64" s="39">
-        <v>198.21</v>
-      </c>
-      <c r="T64" s="39">
-        <v>0</v>
-      </c>
-      <c r="U64" s="39">
-        <v>200</v>
-      </c>
-      <c r="V64" s="39">
-        <v>0</v>
-      </c>
-      <c r="W64" s="39">
-        <v>2287.47</v>
-      </c>
-      <c r="X64" s="39">
-        <v>10926.53</v>
-      </c>
-      <c r="Y64" s="40">
-        <v>5463.265</v>
-      </c>
-      <c r="Z64" s="40">
-        <v>5463.265</v>
-      </c>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
     </row>
     <row r="65" spans="1:35">
-      <c r="A65" s="22" t="s">
-        <v>105</v>
-      </c>
+      <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -5968,15 +5870,9 @@
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
       <c r="W65" s="20"/>
-      <c r="X65" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="21">
-        <v>0</v>
-      </c>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="22"/>
@@ -6067,13 +5963,19 @@
       <c r="B69" s="22"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="43" t="s">
+        <v>106</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="H69" s="43" t="s">
+        <v>107</v>
+      </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
+      <c r="K69" s="46" t="s">
+        <v>108</v>
+      </c>
       <c r="L69" s="21"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
@@ -6095,13 +5997,19 @@
       <c r="B70" s="22"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="44" t="s">
+        <v>109</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="H70" s="44" t="s">
+        <v>110</v>
+      </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
+      <c r="K70" s="47" t="s">
+        <v>111</v>
+      </c>
       <c r="L70" s="21"/>
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
@@ -6123,18 +6031,18 @@
       <c r="B71" s="22"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
-      <c r="E71" s="43" t="s">
-        <v>106</v>
+      <c r="E71" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
-      <c r="H71" s="43" t="s">
-        <v>107</v>
+      <c r="H71" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
-      <c r="K71" s="46" t="s">
-        <v>108</v>
+      <c r="K71" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="L71" s="21"/>
       <c r="M71" s="20"/>
@@ -6157,19 +6065,13 @@
       <c r="B72" s="22"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
-      <c r="E72" s="44" t="s">
-        <v>109</v>
-      </c>
+      <c r="E72" s="20"/>
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
-      <c r="H72" s="44" t="s">
-        <v>110</v>
-      </c>
+      <c r="H72" s="20"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
-      <c r="K72" s="47" t="s">
-        <v>111</v>
-      </c>
+      <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
@@ -6191,19 +6093,13 @@
       <c r="B73" s="22"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
-      <c r="H73" s="45" t="s">
-        <v>113</v>
-      </c>
+      <c r="H73" s="20"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
-      <c r="K73" s="48" t="s">
-        <v>114</v>
-      </c>
+      <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
